--- a/vdkdPOLIER.xlsx
+++ b/vdkdPOLIER.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B\Documents\BacBase1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="23580" windowHeight="9855"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="23580" windowHeight="9855" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="F13polier" sheetId="1" r:id="rId1"/>
+    <sheet name="Fxxpolier" sheetId="2" r:id="rId2"/>
+    <sheet name="F17polier" sheetId="3" r:id="rId3"/>
+    <sheet name="F18polier" sheetId="4" r:id="rId4"/>
+    <sheet name="Vergleiche" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="35">
   <si>
     <t>MP1</t>
   </si>
@@ -101,15 +100,60 @@
       <t>r.</t>
     </r>
   </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Fxx Polier Kont</t>
+  </si>
+  <si>
+    <t>F17 kont pol</t>
+  </si>
+  <si>
+    <t>Mitt</t>
+  </si>
+  <si>
+    <t>Stand</t>
+  </si>
+  <si>
+    <t>F18 Pol Kont</t>
+  </si>
+  <si>
+    <t>mitt</t>
+  </si>
+  <si>
+    <t>Mat.</t>
+  </si>
+  <si>
+    <t>Fxx</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F13 Serie</t>
+  </si>
+  <si>
+    <t>fehler</t>
+  </si>
+  <si>
+    <t>feher ger.</t>
+  </si>
+  <si>
+    <t>mit ger.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,16 +187,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,16 +227,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -185,6 +278,1531 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>F13polier!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13 Serie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>F13polier!$D$25:$M$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.25713963030556813</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.27694717337807429</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.16566532527961303</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8654015976455085E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5603248149199224E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.9586680375575306E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.4958622157600774E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.15786319860462614</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.29989252460804933</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.27472282682541571</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>F13polier!$D$25:$M$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.25713963030556813</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.27694717337807429</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.16566532527961303</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8654015976455085E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5603248149199224E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.9586680375575306E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.4958622157600774E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.15786319860462614</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.29989252460804933</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.27472282682541571</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="41275">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>F13polier!$D$35:$M$35</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>F13polier!$D$36:$M$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50550000000000017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.3500000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.0000000000000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.25650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.29249999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.97050000000000014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.2500000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18100000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="80523264"/>
+        <c:axId val="80590336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80523264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" i="1"/>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80590336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80590336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> ± s [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80523264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3849505285122472"/>
+          <c:y val="5.0295733169492422E-2"/>
+          <c:w val="0.15743140662569546"/>
+          <c:h val="7.0574198062907739E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3420375168758864E-2"/>
+          <c:y val="0.11163819510276203"/>
+          <c:w val="0.7810961569100987"/>
+          <c:h val="0.82578188782913198"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>F13polier!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13 Serie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>F13polier!$D$27:$M$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>F13polier!$D$27:$M$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="41275">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>F13polier!$D$35:$M$35</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>F13polier!$D$37:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="137608192"/>
+        <c:axId val="137692672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="137608192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" i="1"/>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137692672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="137692672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>X =  ± ∆ [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137608192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.47729949818448858"/>
+          <c:y val="0.19679287017869698"/>
+          <c:w val="8.6817715991903674E-2"/>
+          <c:h val="5.9239683491651998E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6396521685462121E-2"/>
+          <c:y val="1.548722699255353E-2"/>
+          <c:w val="0.85904831765025003"/>
+          <c:h val="0.93632965059020679"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergleiche!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Vergleiche!$D$10:$M$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.29581110615782386</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.81745609893388793</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.14034825107192242</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.6577243428696157E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.5675280350486314E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.9161388357766546E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.8151360602074622E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.12282957812822561</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.22070222854382435</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.23127563869251783</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Vergleiche!$D$10:$M$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.29581110615782386</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.81745609893388793</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.14034825107192242</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.6577243428696157E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.5675280350486314E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.9161388357766546E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.8151360602074622E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.12282957812822561</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.22070222854382435</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.23127563869251783</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="41275">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergleiche!$D$3:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergleiche!$D$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.7000000000000031E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.38450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.45200000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.26849999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.66350000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27400000000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergleiche!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Vergleiche!$D$11:$M$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.13204464954584041</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16745462857615814</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.38590972492212949</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.8962521548593973E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.11439083511319736</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.12021362563983205</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.5365774725667092E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.18218772851389492</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.20904544960366864</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.26989032860346035</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Vergleiche!$D$11:$M$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.13204464954584041</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16745462857615814</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.38590972492212949</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.8962521548593973E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.11439083511319736</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.12021362563983205</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.5365774725667092E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.18218772851389492</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.20904544960366864</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.26989032860346035</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="41275">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergleiche!$D$3:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergleiche!$D$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.11350000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.42300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.4425</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.23200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.42349999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergleiche!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Vergleiche!$D$12:$M$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.52313327274474331</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.8380303976592157E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.335156708899678E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.5165024489802646E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.12095562474682479</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.17218334781028594</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.26439404404470951</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14741545302129519</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.23855044705360326</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.34604950969174708</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Vergleiche!$D$12:$M$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.52313327274474331</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.8380303976592157E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.335156708899678E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.5165024489802646E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.12095562474682479</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.17218334781028594</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.26439404404470951</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14741545302129519</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.23855044705360326</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.34604950969174708</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="41275">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergleiche!$D$3:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergleiche!$D$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.4350000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3444999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35149999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.5500000000000017E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.29750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.2555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.0000000000000028E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.19449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6464999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="78622720"/>
+        <c:axId val="78624256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="78622720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" i="1"/>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78624256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="10"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78624256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.25"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> ± s [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78622720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44353318280629767"/>
+          <c:y val="8.9607520761432385E-2"/>
+          <c:w val="4.4264545704733392E-2"/>
+          <c:h val="0.10312250338786391"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -227,10 +1845,90 @@
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="C4:M26" totalsRowShown="0">
+  <autoFilter ref="C4:M26"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr."/>
+    <tableColumn id="2" name="MP1"/>
+    <tableColumn id="3" name="MP2"/>
+    <tableColumn id="4" name="MP3"/>
+    <tableColumn id="5" name="MP4"/>
+    <tableColumn id="6" name="MP5"/>
+    <tableColumn id="7" name="MP6"/>
+    <tableColumn id="8" name="MP7"/>
+    <tableColumn id="9" name="MP8"/>
+    <tableColumn id="10" name="MP9"/>
+    <tableColumn id="11" name="MP10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="C4:M26" totalsRowShown="0">
+  <autoFilter ref="C4:M26"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr."/>
+    <tableColumn id="2" name="MP1"/>
+    <tableColumn id="3" name="MP2"/>
+    <tableColumn id="4" name="MP3"/>
+    <tableColumn id="5" name="MP4"/>
+    <tableColumn id="6" name="MP5"/>
+    <tableColumn id="7" name="MP6"/>
+    <tableColumn id="8" name="MP7"/>
+    <tableColumn id="9" name="MP8"/>
+    <tableColumn id="10" name="MP9"/>
+    <tableColumn id="11" name="MP10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="C4:M29" totalsRowShown="0">
+  <autoFilter ref="C4:M29"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr."/>
+    <tableColumn id="2" name="MP1"/>
+    <tableColumn id="3" name="MP2"/>
+    <tableColumn id="4" name="MP3"/>
+    <tableColumn id="5" name="MP4"/>
+    <tableColumn id="6" name="MP5"/>
+    <tableColumn id="7" name="MP6"/>
+    <tableColumn id="8" name="MP7"/>
+    <tableColumn id="9" name="MP8"/>
+    <tableColumn id="10" name="MP9"/>
+    <tableColumn id="11" name="MP10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="C3:M6" totalsRowShown="0">
+  <autoFilter ref="C3:M6"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Mat."/>
+    <tableColumn id="2" name="MP1"/>
+    <tableColumn id="3" name="MP2"/>
+    <tableColumn id="4" name="MP3"/>
+    <tableColumn id="5" name="MP4"/>
+    <tableColumn id="6" name="MP5"/>
+    <tableColumn id="7" name="MP6"/>
+    <tableColumn id="8" name="MP7"/>
+    <tableColumn id="9" name="MP8"/>
+    <tableColumn id="10" name="MP9"/>
+    <tableColumn id="11" name="MP10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -268,9 +1966,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,10 +2000,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,10 +2034,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -513,16 +2209,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="Q74" sqref="Q74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="3:26" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="3:26" ht="33.75">
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
@@ -530,7 +2226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:26">
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -598,7 +2294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:26">
       <c r="C4">
         <v>1</v>
       </c>
@@ -666,7 +2362,7 @@
         <v>-2.65</v>
       </c>
     </row>
-    <row r="5" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:26">
       <c r="C5">
         <v>2</v>
       </c>
@@ -734,7 +2430,7 @@
         <v>-2.54</v>
       </c>
     </row>
-    <row r="6" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:26">
       <c r="C6">
         <v>3</v>
       </c>
@@ -802,7 +2498,7 @@
         <v>-2.58</v>
       </c>
     </row>
-    <row r="7" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:26">
       <c r="C7">
         <v>4</v>
       </c>
@@ -870,7 +2566,7 @@
         <v>-2.52</v>
       </c>
     </row>
-    <row r="8" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:26">
       <c r="C8">
         <v>5</v>
       </c>
@@ -938,7 +2634,7 @@
         <v>-2.68</v>
       </c>
     </row>
-    <row r="9" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:26">
       <c r="C9">
         <v>6</v>
       </c>
@@ -1006,7 +2702,7 @@
         <v>-2.5499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:26">
       <c r="C10">
         <v>7</v>
       </c>
@@ -1074,7 +2770,7 @@
         <v>-2.5299999999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:26">
       <c r="C11">
         <v>8</v>
       </c>
@@ -1142,7 +2838,7 @@
         <v>-2.54</v>
       </c>
     </row>
-    <row r="12" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:26">
       <c r="C12">
         <v>9</v>
       </c>
@@ -1210,7 +2906,7 @@
         <v>-2.52</v>
       </c>
     </row>
-    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:26">
       <c r="C13">
         <v>10</v>
       </c>
@@ -1278,7 +2974,7 @@
         <v>-2.5499999999999998</v>
       </c>
     </row>
-    <row r="14" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:26">
       <c r="C14">
         <v>11</v>
       </c>
@@ -1346,7 +3042,7 @@
         <v>-3.48</v>
       </c>
     </row>
-    <row r="15" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:26">
       <c r="C15">
         <v>12</v>
       </c>
@@ -1414,7 +3110,7 @@
         <v>-2.4900000000000002</v>
       </c>
     </row>
-    <row r="16" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:26">
       <c r="C16">
         <v>13</v>
       </c>
@@ -1482,7 +3178,7 @@
         <v>-2.72</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="C17">
         <v>14</v>
       </c>
@@ -1550,7 +3246,7 @@
         <v>-2.5499999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="C18">
         <v>15</v>
       </c>
@@ -1618,7 +3314,7 @@
         <v>-2.58</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="C19">
         <v>16</v>
       </c>
@@ -1686,7 +3382,7 @@
         <v>-2.52</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="C20">
         <v>17</v>
       </c>
@@ -1754,7 +3450,7 @@
         <v>-2.57</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="C21">
         <v>18</v>
       </c>
@@ -1822,7 +3518,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="C22">
         <v>19</v>
       </c>
@@ -1890,7 +3586,7 @@
         <v>-2.5099999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="C23">
         <v>20</v>
       </c>
@@ -1958,7 +3654,7 @@
         <v>-2.4700000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
@@ -2046,7 +3742,7 @@
         <v>-2.6025</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
@@ -2134,7 +3830,7 @@
         <v>0.21584290095978798</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26">
         <f>2.09/(SQRT(20))</f>
         <v>0.46733820729745601</v>
@@ -2186,7 +3882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="C27" s="3" t="s">
         <v>17</v>
       </c>
@@ -2224,7 +3920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -2256,15 +3952,3062 @@
         <v>-0.03</v>
       </c>
       <c r="M28">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="15.75" thickBot="1">
+      <c r="C35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="15.75" thickTop="1">
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <v>0.42449999999999999</v>
+      </c>
+      <c r="E36">
+        <v>0.50550000000000017</v>
+      </c>
+      <c r="F36">
+        <v>-5.3500000000000006E-2</v>
+      </c>
+      <c r="G36">
+        <v>-8.0000000000000029E-2</v>
+      </c>
+      <c r="H36">
+        <v>-0.25650000000000006</v>
+      </c>
+      <c r="I36">
+        <v>-0.29249999999999993</v>
+      </c>
+      <c r="J36">
+        <v>-0.23300000000000001</v>
+      </c>
+      <c r="K36">
+        <v>-0.97050000000000014</v>
+      </c>
+      <c r="L36">
+        <v>-3.2500000000000008E-2</v>
+      </c>
+      <c r="M36">
+        <v>0.18100000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>0.42</v>
+      </c>
+      <c r="E37">
+        <v>0.51</v>
+      </c>
+      <c r="F37">
+        <v>-0.05</v>
+      </c>
+      <c r="G37">
+        <v>-0.08</v>
+      </c>
+      <c r="H37">
+        <v>-0.25700000000000001</v>
+      </c>
+      <c r="I37">
+        <v>-0.29299999999999998</v>
+      </c>
+      <c r="J37">
+        <v>-0.23300000000000001</v>
+      </c>
+      <c r="K37">
+        <v>-0.97</v>
+      </c>
+      <c r="L37">
+        <v>-0.03</v>
+      </c>
+      <c r="M37">
         <v>0.18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:M26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="3:13" ht="21">
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="4" spans="3:13">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1.63</v>
+      </c>
+      <c r="E5">
+        <v>-0.67</v>
+      </c>
+      <c r="F5">
+        <v>0.05</v>
+      </c>
+      <c r="G5">
+        <v>-0.11</v>
+      </c>
+      <c r="H5">
+        <v>-0.4</v>
+      </c>
+      <c r="I5">
+        <v>-0.48</v>
+      </c>
+      <c r="J5">
+        <v>-0.37</v>
+      </c>
+      <c r="K5">
+        <v>-0.53</v>
+      </c>
+      <c r="L5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M5">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1.89</v>
+      </c>
+      <c r="E6">
+        <v>1.02</v>
+      </c>
+      <c r="F6">
+        <v>0.25</v>
+      </c>
+      <c r="G6">
+        <v>-0.15</v>
+      </c>
+      <c r="H6">
+        <v>-0.48</v>
+      </c>
+      <c r="I6">
+        <v>-0.54</v>
+      </c>
+      <c r="J6">
+        <v>-0.3</v>
+      </c>
+      <c r="K6">
+        <v>-0.72</v>
+      </c>
+      <c r="L6">
+        <v>0.24</v>
+      </c>
+      <c r="M6">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7">
+        <v>-0.63</v>
+      </c>
+      <c r="F7">
+        <v>0.03</v>
+      </c>
+      <c r="G7">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H7">
+        <v>-0.51</v>
+      </c>
+      <c r="I7">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="J7">
+        <v>-0.32</v>
+      </c>
+      <c r="K7">
+        <v>-0.63</v>
+      </c>
+      <c r="L7">
+        <v>0.45</v>
+      </c>
+      <c r="M7">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1.87</v>
+      </c>
+      <c r="E8">
+        <v>1.06</v>
+      </c>
+      <c r="F8">
+        <v>0.26</v>
+      </c>
+      <c r="G8">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H8">
+        <v>-0.46</v>
+      </c>
+      <c r="I8">
+        <v>-0.49</v>
+      </c>
+      <c r="J8">
+        <v>-0.23</v>
+      </c>
+      <c r="K8">
+        <v>-0.81</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1.69</v>
+      </c>
+      <c r="E9">
+        <v>-0.97</v>
+      </c>
+      <c r="F9">
+        <v>0.21</v>
+      </c>
+      <c r="G9">
+        <v>-0.15</v>
+      </c>
+      <c r="H9">
+        <v>-0.43</v>
+      </c>
+      <c r="I9">
+        <v>-0.45</v>
+      </c>
+      <c r="J9">
+        <v>-0.26</v>
+      </c>
+      <c r="K9">
+        <v>-0.84</v>
+      </c>
+      <c r="L9">
+        <v>-0.02</v>
+      </c>
+      <c r="M9">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1.82</v>
+      </c>
+      <c r="E10">
+        <v>-0.72</v>
+      </c>
+      <c r="F10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G10">
+        <v>-0.05</v>
+      </c>
+      <c r="H10">
+        <v>-0.37</v>
+      </c>
+      <c r="I10">
+        <v>-0.45</v>
+      </c>
+      <c r="J10">
+        <v>-0.25</v>
+      </c>
+      <c r="K10">
+        <v>-0.63</v>
+      </c>
+      <c r="L10">
+        <v>0.36</v>
+      </c>
+      <c r="M10">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>1.4</v>
+      </c>
+      <c r="E11">
+        <v>-0.53</v>
+      </c>
+      <c r="F11">
+        <v>-0.01</v>
+      </c>
+      <c r="G11">
+        <v>-0.08</v>
+      </c>
+      <c r="H11">
+        <v>-0.37</v>
+      </c>
+      <c r="I11">
+        <v>-0.45</v>
+      </c>
+      <c r="J11">
+        <v>-0.27</v>
+      </c>
+      <c r="K11">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="L11">
+        <v>0.37</v>
+      </c>
+      <c r="M11">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>1.57</v>
+      </c>
+      <c r="E12">
+        <v>-0.93</v>
+      </c>
+      <c r="F12">
+        <v>0.21</v>
+      </c>
+      <c r="G12">
+        <v>-0.12</v>
+      </c>
+      <c r="H12">
+        <v>-0.39</v>
+      </c>
+      <c r="I12">
+        <v>-0.42</v>
+      </c>
+      <c r="J12">
+        <v>-0.24</v>
+      </c>
+      <c r="K12">
+        <v>-0.85</v>
+      </c>
+      <c r="L12">
+        <v>-0.03</v>
+      </c>
+      <c r="M12">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>1.57</v>
+      </c>
+      <c r="E13">
+        <v>-0.61</v>
+      </c>
+      <c r="F13">
+        <v>0.06</v>
+      </c>
+      <c r="G13">
+        <v>-0.06</v>
+      </c>
+      <c r="H13">
+        <v>-0.31</v>
+      </c>
+      <c r="I13">
+        <v>-0.41</v>
+      </c>
+      <c r="J13">
+        <v>-0.26</v>
+      </c>
+      <c r="K13">
+        <v>-0.52</v>
+      </c>
+      <c r="L13">
+        <v>0.51</v>
+      </c>
+      <c r="M13">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>1.44</v>
+      </c>
+      <c r="E14">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="F14">
+        <v>0.02</v>
+      </c>
+      <c r="G14">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H14">
+        <v>-0.33</v>
+      </c>
+      <c r="I14">
+        <v>-0.45</v>
+      </c>
+      <c r="J14">
+        <v>-0.26</v>
+      </c>
+      <c r="K14">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="L14">
+        <v>0.39</v>
+      </c>
+      <c r="M14">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>1.7</v>
+      </c>
+      <c r="E15">
+        <v>-0.84</v>
+      </c>
+      <c r="F15">
+        <v>0.18</v>
+      </c>
+      <c r="G15">
+        <v>-0.1</v>
+      </c>
+      <c r="H15">
+        <v>-0.35</v>
+      </c>
+      <c r="I15">
+        <v>-0.4</v>
+      </c>
+      <c r="J15">
+        <v>-0.25</v>
+      </c>
+      <c r="K15">
+        <v>-0.87</v>
+      </c>
+      <c r="L15">
+        <v>-0.08</v>
+      </c>
+      <c r="M15">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>1.43</v>
+      </c>
+      <c r="E16">
+        <v>0.59</v>
+      </c>
+      <c r="F16">
+        <v>0.03</v>
+      </c>
+      <c r="G16">
+        <v>-0.12</v>
+      </c>
+      <c r="H16">
+        <v>-0.38</v>
+      </c>
+      <c r="I16">
+        <v>-0.47</v>
+      </c>
+      <c r="J16">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K16">
+        <v>-0.59</v>
+      </c>
+      <c r="L16">
+        <v>0.39</v>
+      </c>
+      <c r="M16">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>1.72</v>
+      </c>
+      <c r="E17">
+        <v>0.94</v>
+      </c>
+      <c r="F17">
+        <v>0.23</v>
+      </c>
+      <c r="G17">
+        <v>-0.11</v>
+      </c>
+      <c r="H17">
+        <v>-0.35</v>
+      </c>
+      <c r="I17">
+        <v>-0.39</v>
+      </c>
+      <c r="J17">
+        <v>-0.25</v>
+      </c>
+      <c r="K17">
+        <v>-0.71</v>
+      </c>
+      <c r="L17">
+        <v>0.17</v>
+      </c>
+      <c r="M17">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>1.21</v>
+      </c>
+      <c r="E18">
+        <v>0.43</v>
+      </c>
+      <c r="F18">
+        <v>-0.04</v>
+      </c>
+      <c r="G18">
+        <v>-0.06</v>
+      </c>
+      <c r="H18">
+        <v>-0.32</v>
+      </c>
+      <c r="I18">
+        <v>-0.42</v>
+      </c>
+      <c r="J18">
+        <v>-0.31</v>
+      </c>
+      <c r="K18">
+        <v>-0.54</v>
+      </c>
+      <c r="L18">
+        <v>0.45</v>
+      </c>
+      <c r="M18">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>2.12</v>
+      </c>
+      <c r="E19">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.46</v>
+      </c>
+      <c r="G19">
+        <v>-0.01</v>
+      </c>
+      <c r="H19">
+        <v>-0.33</v>
+      </c>
+      <c r="I19">
+        <v>-0.41</v>
+      </c>
+      <c r="J19">
+        <v>-0.25</v>
+      </c>
+      <c r="K19">
+        <v>-0.69</v>
+      </c>
+      <c r="L19">
+        <v>0.18</v>
+      </c>
+      <c r="M19">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>1.2</v>
+      </c>
+      <c r="E20">
+        <v>0.46</v>
+      </c>
+      <c r="F20">
+        <v>-0.03</v>
+      </c>
+      <c r="G20">
+        <v>-0.08</v>
+      </c>
+      <c r="H20">
+        <v>-0.32</v>
+      </c>
+      <c r="I20">
+        <v>-0.41</v>
+      </c>
+      <c r="J20">
+        <v>-0.26</v>
+      </c>
+      <c r="K20">
+        <v>-0.65</v>
+      </c>
+      <c r="L20">
+        <v>0.26</v>
+      </c>
+      <c r="M20">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>1.59</v>
+      </c>
+      <c r="E21">
+        <v>0.89</v>
+      </c>
+      <c r="F21">
+        <v>0.19</v>
+      </c>
+      <c r="G21">
+        <v>-0.1</v>
+      </c>
+      <c r="H21">
+        <v>-0.36</v>
+      </c>
+      <c r="I21">
+        <v>-0.4</v>
+      </c>
+      <c r="J21">
+        <v>-0.22</v>
+      </c>
+      <c r="K21">
+        <v>-0.83</v>
+      </c>
+      <c r="L21">
+        <v>-0.04</v>
+      </c>
+      <c r="M21">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>1.89</v>
+      </c>
+      <c r="E22">
+        <v>0.78</v>
+      </c>
+      <c r="F22">
+        <v>0.13</v>
+      </c>
+      <c r="G22">
+        <v>-0.08</v>
+      </c>
+      <c r="H22">
+        <v>-0.41</v>
+      </c>
+      <c r="I22">
+        <v>-0.48</v>
+      </c>
+      <c r="J22">
+        <v>-0.26</v>
+      </c>
+      <c r="K22">
+        <v>-0.54</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>1.68</v>
+      </c>
+      <c r="E23">
+        <v>0.68</v>
+      </c>
+      <c r="F23">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G23">
+        <v>-0.12</v>
+      </c>
+      <c r="H23">
+        <v>-0.43</v>
+      </c>
+      <c r="I23">
+        <v>-0.53</v>
+      </c>
+      <c r="J23">
+        <v>-0.31</v>
+      </c>
+      <c r="K23">
+        <v>-0.49</v>
+      </c>
+      <c r="L23">
+        <v>0.62</v>
+      </c>
+      <c r="M23">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>2.46</v>
+      </c>
+      <c r="E24">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.34</v>
+      </c>
+      <c r="G24">
+        <v>-0.09</v>
+      </c>
+      <c r="H24">
+        <v>-0.39</v>
+      </c>
+      <c r="I24">
+        <v>-0.43</v>
+      </c>
+      <c r="J24">
+        <v>-0.21</v>
+      </c>
+      <c r="K24">
+        <v>-0.68</v>
+      </c>
+      <c r="L24">
+        <v>0.19</v>
+      </c>
+      <c r="M24">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5">
+        <f>SUBTOTAL(101,D5:D24)</f>
+        <v>1.669</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" ref="E25:M25" si="0">SUBTOTAL(101,E5:E24)</f>
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1285</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="0"/>
+        <v>-9.7000000000000031E-2</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.38450000000000001</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.45200000000000007</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.26849999999999991</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.66350000000000009</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27400000000000008</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="0"/>
+        <v>1.294</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="5">
+        <f>STDEV(D5:D24)</f>
+        <v>0.29581110615782386</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" ref="E26:M26" si="1">STDEV(E5:E24)</f>
+        <v>0.81745609893388793</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.14034825107192242</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+        <v>3.6577243428696157E-2</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="1"/>
+        <v>5.5675280350486314E-2</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="1"/>
+        <v>4.9161388357766546E-2</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="1"/>
+        <v>3.8151360602074622E-2</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.12282957812822561</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.22070222854382435</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.23127563869251783</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:M26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="3:13" ht="21">
+      <c r="G2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.94</v>
+      </c>
+      <c r="F5">
+        <v>0.21</v>
+      </c>
+      <c r="G5">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H5">
+        <v>-0.41</v>
+      </c>
+      <c r="I5">
+        <v>-0.48</v>
+      </c>
+      <c r="J5">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K5">
+        <v>-0.41</v>
+      </c>
+      <c r="L5">
+        <v>0.76</v>
+      </c>
+      <c r="M5">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2.34</v>
+      </c>
+      <c r="E6">
+        <v>0.94</v>
+      </c>
+      <c r="F6">
+        <v>0.21</v>
+      </c>
+      <c r="G6">
+        <v>-0.11</v>
+      </c>
+      <c r="H6">
+        <v>-0.47</v>
+      </c>
+      <c r="I6">
+        <v>-0.54</v>
+      </c>
+      <c r="J6">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K6">
+        <v>-0.4</v>
+      </c>
+      <c r="L6">
+        <v>0.86</v>
+      </c>
+      <c r="M6">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2.5</v>
+      </c>
+      <c r="E7">
+        <v>1.25</v>
+      </c>
+      <c r="F7">
+        <v>0.38</v>
+      </c>
+      <c r="G7">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H7">
+        <v>-0.45</v>
+      </c>
+      <c r="I7">
+        <v>-0.48</v>
+      </c>
+      <c r="J7">
+        <v>-0.24</v>
+      </c>
+      <c r="K7">
+        <v>-0.6</v>
+      </c>
+      <c r="L7">
+        <v>0.44</v>
+      </c>
+      <c r="M7">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2.46</v>
+      </c>
+      <c r="E8">
+        <v>1.04</v>
+      </c>
+      <c r="F8">
+        <v>0.2</v>
+      </c>
+      <c r="G8">
+        <v>-0.12</v>
+      </c>
+      <c r="H8">
+        <v>-0.44</v>
+      </c>
+      <c r="I8">
+        <v>-0.5</v>
+      </c>
+      <c r="J8">
+        <v>-0.27</v>
+      </c>
+      <c r="K8">
+        <v>-0.43</v>
+      </c>
+      <c r="L8">
+        <v>0.73</v>
+      </c>
+      <c r="M8">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>2.54</v>
+      </c>
+      <c r="E9">
+        <v>1.3</v>
+      </c>
+      <c r="F9">
+        <v>0.42</v>
+      </c>
+      <c r="G9">
+        <v>-0.13</v>
+      </c>
+      <c r="H9">
+        <v>-0.46</v>
+      </c>
+      <c r="I9">
+        <v>-0.49</v>
+      </c>
+      <c r="J9">
+        <v>-0.25</v>
+      </c>
+      <c r="K9">
+        <v>-0.68</v>
+      </c>
+      <c r="L9">
+        <v>0.35</v>
+      </c>
+      <c r="M9">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>2.61</v>
+      </c>
+      <c r="E10">
+        <v>1.03</v>
+      </c>
+      <c r="F10">
+        <v>0.27</v>
+      </c>
+      <c r="G10">
+        <v>-0.12</v>
+      </c>
+      <c r="H10">
+        <v>-0.48</v>
+      </c>
+      <c r="I10">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="J10">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K10">
+        <v>-0.38</v>
+      </c>
+      <c r="L10">
+        <v>0.86</v>
+      </c>
+      <c r="M10">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>2.62</v>
+      </c>
+      <c r="E11">
+        <v>1.23</v>
+      </c>
+      <c r="F11">
+        <v>0.42</v>
+      </c>
+      <c r="G11">
+        <v>-0.12</v>
+      </c>
+      <c r="H11">
+        <v>-0.43</v>
+      </c>
+      <c r="I11">
+        <v>-0.45</v>
+      </c>
+      <c r="J11">
+        <v>-0.16</v>
+      </c>
+      <c r="K11">
+        <v>-0.61</v>
+      </c>
+      <c r="L11">
+        <v>0.33</v>
+      </c>
+      <c r="M11">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>2.4</v>
+      </c>
+      <c r="E12">
+        <v>0.87</v>
+      </c>
+      <c r="F12">
+        <v>0.22</v>
+      </c>
+      <c r="G12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H12">
+        <v>-0.43</v>
+      </c>
+      <c r="I12">
+        <v>-0.51</v>
+      </c>
+      <c r="J12">
+        <v>-0.26</v>
+      </c>
+      <c r="K12">
+        <v>-0.37</v>
+      </c>
+      <c r="L12">
+        <v>0.81</v>
+      </c>
+      <c r="M12">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>2.74</v>
+      </c>
+      <c r="E13">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F13">
+        <v>1.02</v>
+      </c>
+      <c r="G13">
+        <v>-0.31</v>
+      </c>
+      <c r="H13">
+        <v>-0.01</v>
+      </c>
+      <c r="I13">
+        <v>-0.33</v>
+      </c>
+      <c r="J13">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="K13">
+        <v>-0.4</v>
+      </c>
+      <c r="L13">
+        <v>0.7</v>
+      </c>
+      <c r="M13">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="G14">
+        <v>-0.09</v>
+      </c>
+      <c r="H14">
+        <v>-0.44</v>
+      </c>
+      <c r="I14">
+        <v>-0.51</v>
+      </c>
+      <c r="J14">
+        <v>-0.26</v>
+      </c>
+      <c r="K14">
+        <v>-0.42</v>
+      </c>
+      <c r="L14">
+        <v>0.74</v>
+      </c>
+      <c r="M14">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>2.64</v>
+      </c>
+      <c r="E15">
+        <v>1.26</v>
+      </c>
+      <c r="F15">
+        <v>-0.38</v>
+      </c>
+      <c r="G15">
+        <v>-0.15</v>
+      </c>
+      <c r="H15">
+        <v>-0.45</v>
+      </c>
+      <c r="I15">
+        <v>-0.38</v>
+      </c>
+      <c r="J15">
+        <v>-0.08</v>
+      </c>
+      <c r="K15">
+        <v>-0.08</v>
+      </c>
+      <c r="L15">
+        <v>0.75</v>
+      </c>
+      <c r="M15">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>2.39</v>
+      </c>
+      <c r="E16">
+        <v>0.93</v>
+      </c>
+      <c r="F16">
+        <v>-0.24</v>
+      </c>
+      <c r="G16">
+        <v>-0.11</v>
+      </c>
+      <c r="H16">
+        <v>-0.4</v>
+      </c>
+      <c r="I16">
+        <v>-0.47</v>
+      </c>
+      <c r="J16">
+        <v>-0.25</v>
+      </c>
+      <c r="K16">
+        <v>-0.35</v>
+      </c>
+      <c r="L16">
+        <v>0.85</v>
+      </c>
+      <c r="M16">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>2.67</v>
+      </c>
+      <c r="E17">
+        <v>1.4</v>
+      </c>
+      <c r="F17">
+        <v>-0.63</v>
+      </c>
+      <c r="G17">
+        <v>-0.1</v>
+      </c>
+      <c r="H17">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="I17">
+        <v>-0.48</v>
+      </c>
+      <c r="J17">
+        <v>-0.21</v>
+      </c>
+      <c r="K17">
+        <v>-0.72</v>
+      </c>
+      <c r="L17">
+        <v>0.42</v>
+      </c>
+      <c r="M17">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>2.82</v>
+      </c>
+      <c r="E18">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.48</v>
+      </c>
+      <c r="G18">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H18">
+        <v>-0.46</v>
+      </c>
+      <c r="I18">
+        <v>-0.51</v>
+      </c>
+      <c r="J18">
+        <v>-0.34</v>
+      </c>
+      <c r="K18">
+        <v>-0.46</v>
+      </c>
+      <c r="L18">
+        <v>1.05</v>
+      </c>
+      <c r="M18">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>2.69</v>
+      </c>
+      <c r="E19">
+        <v>1.42</v>
+      </c>
+      <c r="F19">
+        <v>0.64</v>
+      </c>
+      <c r="G19">
+        <v>-0.05</v>
+      </c>
+      <c r="H19">
+        <v>-0.35</v>
+      </c>
+      <c r="I19">
+        <v>-0.23</v>
+      </c>
+      <c r="J19">
+        <v>-0.18</v>
+      </c>
+      <c r="K19">
+        <v>-0.11</v>
+      </c>
+      <c r="L19">
+        <v>0.94</v>
+      </c>
+      <c r="M19">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>2.67</v>
+      </c>
+      <c r="E20">
+        <v>1.18</v>
+      </c>
+      <c r="F20">
+        <v>0.47</v>
+      </c>
+      <c r="G20">
+        <v>-0.08</v>
+      </c>
+      <c r="H20">
+        <v>-0.53</v>
+      </c>
+      <c r="I20">
+        <v>-0.62</v>
+      </c>
+      <c r="J20">
+        <v>-0.32</v>
+      </c>
+      <c r="K20">
+        <v>-0.47</v>
+      </c>
+      <c r="L20">
+        <v>0.79</v>
+      </c>
+      <c r="M20">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>2.74</v>
+      </c>
+      <c r="E21">
+        <v>1.37</v>
+      </c>
+      <c r="F21">
+        <v>0.59</v>
+      </c>
+      <c r="G21">
+        <v>-0.05</v>
+      </c>
+      <c r="H21">
+        <v>-0.44</v>
+      </c>
+      <c r="I21">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J21">
+        <v>-0.06</v>
+      </c>
+      <c r="K21">
+        <v>-0.45</v>
+      </c>
+      <c r="L21">
+        <v>0.69</v>
+      </c>
+      <c r="M21">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>2.68</v>
+      </c>
+      <c r="E22">
+        <v>1.17</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H22">
+        <v>-0.5</v>
+      </c>
+      <c r="I22">
+        <v>-0.41</v>
+      </c>
+      <c r="J22">
+        <v>-0.26</v>
+      </c>
+      <c r="K22">
+        <v>-0.51</v>
+      </c>
+      <c r="L22">
+        <v>0.77</v>
+      </c>
+      <c r="M22">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>2.63</v>
+      </c>
+      <c r="E23">
+        <v>1.28</v>
+      </c>
+      <c r="F23">
+        <v>0.37</v>
+      </c>
+      <c r="G23">
+        <v>-0.11</v>
+      </c>
+      <c r="H23">
+        <v>-0.27</v>
+      </c>
+      <c r="I23">
+        <v>-0.12</v>
+      </c>
+      <c r="J23">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K23">
+        <v>-0.04</v>
+      </c>
+      <c r="L23">
+        <v>0.73</v>
+      </c>
+      <c r="M23">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>2.64</v>
+      </c>
+      <c r="E24">
+        <v>1.28</v>
+      </c>
+      <c r="F24">
+        <v>0.34</v>
+      </c>
+      <c r="G24">
+        <v>-0.2</v>
+      </c>
+      <c r="H24">
+        <v>-0.49</v>
+      </c>
+      <c r="I24">
+        <v>-0.51</v>
+      </c>
+      <c r="J24">
+        <v>-0.2</v>
+      </c>
+      <c r="K24">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="L24">
+        <v>0.33</v>
+      </c>
+      <c r="M24">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="5">
+        <f>SUBTOTAL(101,D5:D24)</f>
+        <v>2.5860000000000003</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" ref="E25:M25" si="0">SUBTOTAL(101,E5:E24)</f>
+        <v>1.159</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.11350000000000005</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.42300000000000004</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.4425</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.23200000000000004</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.42349999999999993</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.69500000000000006</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4575</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="5">
+        <f>STDEV(D5:D24)</f>
+        <v>0.13204464954584041</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" ref="E26:M26" si="1">STDEV(E5:E24)</f>
+        <v>0.16745462857615814</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.38590972492212949</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+        <v>5.8962521548593973E-2</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.11439083511319736</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.12021362563983205</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="1"/>
+        <v>7.5365774725667092E-2</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.18218772851389492</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.20904544960366864</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.26989032860346035</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1">
+        <f>2.09/SQRT(20)</f>
+        <v>0.46733820729745601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="21">
+      <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4.33</v>
+      </c>
+      <c r="E5">
+        <v>1.17</v>
+      </c>
+      <c r="F5">
+        <v>0.27</v>
+      </c>
+      <c r="G5">
+        <v>0.03</v>
+      </c>
+      <c r="H5">
+        <v>-0.21</v>
+      </c>
+      <c r="I5">
+        <v>-0.23</v>
+      </c>
+      <c r="J5">
+        <v>-0.11</v>
+      </c>
+      <c r="K5">
+        <v>-0.24</v>
+      </c>
+      <c r="L5">
+        <v>1.27</v>
+      </c>
+      <c r="M5">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3.54</v>
+      </c>
+      <c r="E6">
+        <v>1.31</v>
+      </c>
+      <c r="F6">
+        <v>0.32</v>
+      </c>
+      <c r="G6">
+        <v>-0.08</v>
+      </c>
+      <c r="H6">
+        <v>-0.37</v>
+      </c>
+      <c r="I6">
+        <v>-0.37</v>
+      </c>
+      <c r="J6">
+        <v>-0.19</v>
+      </c>
+      <c r="K6">
+        <v>-0.21</v>
+      </c>
+      <c r="L6">
+        <v>1.3</v>
+      </c>
+      <c r="M6">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3.18</v>
+      </c>
+      <c r="E7">
+        <v>1.44</v>
+      </c>
+      <c r="F7">
+        <v>0.42</v>
+      </c>
+      <c r="G7">
+        <v>-0.11</v>
+      </c>
+      <c r="H7">
+        <v>-0.3</v>
+      </c>
+      <c r="I7">
+        <v>-0.2</v>
+      </c>
+      <c r="J7">
+        <v>-0.04</v>
+      </c>
+      <c r="K7">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="L7">
+        <v>0.9</v>
+      </c>
+      <c r="M7">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>3.81</v>
+      </c>
+      <c r="E8">
+        <v>1.23</v>
+      </c>
+      <c r="F8">
+        <v>0.35</v>
+      </c>
+      <c r="G8">
+        <v>-0.08</v>
+      </c>
+      <c r="H8">
+        <v>-0.4</v>
+      </c>
+      <c r="I8">
+        <v>-0.4</v>
+      </c>
+      <c r="J8">
+        <v>-0.18</v>
+      </c>
+      <c r="K8">
+        <v>-0.2</v>
+      </c>
+      <c r="L8">
+        <v>1.22</v>
+      </c>
+      <c r="M8">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>3.26</v>
+      </c>
+      <c r="E9">
+        <v>1.26</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9">
+        <v>-0.08</v>
+      </c>
+      <c r="H9">
+        <v>-0.41</v>
+      </c>
+      <c r="I9">
+        <v>-0.4</v>
+      </c>
+      <c r="J9">
+        <v>-0.2</v>
+      </c>
+      <c r="K9">
+        <v>-0.21</v>
+      </c>
+      <c r="L9">
+        <v>1.33</v>
+      </c>
+      <c r="M9">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E10">
+        <v>1.56</v>
+      </c>
+      <c r="F10">
+        <v>0.43</v>
+      </c>
+      <c r="G10">
+        <v>-0.09</v>
+      </c>
+      <c r="H10">
+        <v>-0.26</v>
+      </c>
+      <c r="I10">
+        <v>-0.21</v>
+      </c>
+      <c r="J10">
+        <v>-0.06</v>
+      </c>
+      <c r="K10">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="L10">
+        <v>0.59</v>
+      </c>
+      <c r="M10">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>2.85</v>
+      </c>
+      <c r="E11">
+        <v>1.31</v>
+      </c>
+      <c r="F11">
+        <v>0.33</v>
+      </c>
+      <c r="G11">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H11">
+        <v>-0.38</v>
+      </c>
+      <c r="I11">
+        <v>-0.37</v>
+      </c>
+      <c r="J11">
+        <v>-0.2</v>
+      </c>
+      <c r="K11">
+        <v>-0.19</v>
+      </c>
+      <c r="L11">
+        <v>1.33</v>
+      </c>
+      <c r="M11">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>3.21</v>
+      </c>
+      <c r="E12">
+        <v>1.43</v>
+      </c>
+      <c r="F12">
+        <v>0.41</v>
+      </c>
+      <c r="G12">
+        <v>-0.02</v>
+      </c>
+      <c r="H12">
+        <v>-0.1</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <v>0.44</v>
+      </c>
+      <c r="K12">
+        <v>0.11</v>
+      </c>
+      <c r="L12">
+        <v>1.19</v>
+      </c>
+      <c r="M12">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>3.44</v>
+      </c>
+      <c r="E13">
+        <v>1.29</v>
+      </c>
+      <c r="F13">
+        <v>0.32</v>
+      </c>
+      <c r="G13">
+        <v>-0.08</v>
+      </c>
+      <c r="H13">
+        <v>-0.37</v>
+      </c>
+      <c r="I13">
+        <v>-0.4</v>
+      </c>
+      <c r="J13">
+        <v>-0.22</v>
+      </c>
+      <c r="K13">
+        <v>-0.17</v>
+      </c>
+      <c r="L13">
+        <v>1.39</v>
+      </c>
+      <c r="M13">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E14">
+        <v>1.43</v>
+      </c>
+      <c r="F14">
+        <v>0.38</v>
+      </c>
+      <c r="G14">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H14">
+        <v>-0.24</v>
+      </c>
+      <c r="I14">
+        <v>-0.21</v>
+      </c>
+      <c r="J14">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="K14">
+        <v>-0.49</v>
+      </c>
+      <c r="L14">
+        <v>0.65</v>
+      </c>
+      <c r="M14">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>3.17</v>
+      </c>
+      <c r="E15">
+        <v>1.38</v>
+      </c>
+      <c r="F15">
+        <v>0.4</v>
+      </c>
+      <c r="G15">
+        <v>-0.04</v>
+      </c>
+      <c r="H15">
+        <v>-0.19</v>
+      </c>
+      <c r="I15">
+        <v>-0.06</v>
+      </c>
+      <c r="J15">
+        <v>0.18</v>
+      </c>
+      <c r="K15">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="L15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M15">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>3.45</v>
+      </c>
+      <c r="E16">
+        <v>1.34</v>
+      </c>
+      <c r="F16">
+        <v>0.3</v>
+      </c>
+      <c r="G16">
+        <v>-0.11</v>
+      </c>
+      <c r="H16">
+        <v>-0.45</v>
+      </c>
+      <c r="I16">
+        <v>-0.48</v>
+      </c>
+      <c r="J16">
+        <v>-0.24</v>
+      </c>
+      <c r="K16">
+        <v>-0.26</v>
+      </c>
+      <c r="L16">
+        <v>1.33</v>
+      </c>
+      <c r="M16">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>3.13</v>
+      </c>
+      <c r="E17">
+        <v>1.38</v>
+      </c>
+      <c r="F17">
+        <v>0.35</v>
+      </c>
+      <c r="G17">
+        <v>-0.04</v>
+      </c>
+      <c r="H17">
+        <v>-0.11</v>
+      </c>
+      <c r="I17">
+        <v>-0.08</v>
+      </c>
+      <c r="J17">
+        <v>0.44</v>
+      </c>
+      <c r="K17">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="L17">
+        <v>1.28</v>
+      </c>
+      <c r="M17">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E18">
+        <v>1.23</v>
+      </c>
+      <c r="F18">
+        <v>0.24</v>
+      </c>
+      <c r="G18">
+        <v>-0.1</v>
+      </c>
+      <c r="H18">
+        <v>-0.38</v>
+      </c>
+      <c r="I18">
+        <v>-0.4</v>
+      </c>
+      <c r="J18">
+        <v>-0.22</v>
+      </c>
+      <c r="K18">
+        <v>-0.18</v>
+      </c>
+      <c r="L18">
+        <v>1.42</v>
+      </c>
+      <c r="M18">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>2.93</v>
+      </c>
+      <c r="E19">
+        <v>1.26</v>
+      </c>
+      <c r="F19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G19">
+        <v>-0.1</v>
+      </c>
+      <c r="H19">
+        <v>-0.45</v>
+      </c>
+      <c r="I19">
+        <v>-0.44</v>
+      </c>
+      <c r="J19">
+        <v>-0.23</v>
+      </c>
+      <c r="K19">
+        <v>-0.16</v>
+      </c>
+      <c r="L19">
+        <v>1.45</v>
+      </c>
+      <c r="M19">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>2.91</v>
+      </c>
+      <c r="E20">
+        <v>1.36</v>
+      </c>
+      <c r="F20">
+        <v>0.43</v>
+      </c>
+      <c r="G20">
+        <v>-0.03</v>
+      </c>
+      <c r="H20">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="I20">
+        <v>-0.08</v>
+      </c>
+      <c r="J20">
+        <v>0.49</v>
+      </c>
+      <c r="K20">
+        <v>-0.19</v>
+      </c>
+      <c r="L20">
+        <v>1.2</v>
+      </c>
+      <c r="M20">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>3.65</v>
+      </c>
+      <c r="E21">
+        <v>1.32</v>
+      </c>
+      <c r="F21">
+        <v>0.33</v>
+      </c>
+      <c r="G21">
+        <v>-0.08</v>
+      </c>
+      <c r="H21">
+        <v>-0.4</v>
+      </c>
+      <c r="I21">
+        <v>-0.39</v>
+      </c>
+      <c r="J21">
+        <v>-0.2</v>
+      </c>
+      <c r="K21">
+        <v>-0.23</v>
+      </c>
+      <c r="L21">
+        <v>1.31</v>
+      </c>
+      <c r="M21">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>2.79</v>
+      </c>
+      <c r="E22">
+        <v>1.43</v>
+      </c>
+      <c r="F22">
+        <v>0.42</v>
+      </c>
+      <c r="G22">
+        <v>-0.03</v>
+      </c>
+      <c r="H22">
+        <v>-0.19</v>
+      </c>
+      <c r="I22">
+        <v>-0.03</v>
+      </c>
+      <c r="J22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K22">
+        <v>-0.02</v>
+      </c>
+      <c r="L22">
+        <v>1.25</v>
+      </c>
+      <c r="M22">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>2.93</v>
+      </c>
+      <c r="E23">
+        <v>1.27</v>
+      </c>
+      <c r="F23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G23">
+        <v>-0.08</v>
+      </c>
+      <c r="H23">
+        <v>-0.44</v>
+      </c>
+      <c r="I23">
+        <v>-0.41</v>
+      </c>
+      <c r="J23">
+        <v>-0.21</v>
+      </c>
+      <c r="K23">
+        <v>-0.17</v>
+      </c>
+      <c r="L23">
+        <v>1.47</v>
+      </c>
+      <c r="M23">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>3.27</v>
+      </c>
+      <c r="E24">
+        <v>1.49</v>
+      </c>
+      <c r="F24">
+        <v>0.46</v>
+      </c>
+      <c r="G24">
+        <v>-0.05</v>
+      </c>
+      <c r="H24">
+        <v>-0.16</v>
+      </c>
+      <c r="I24">
+        <v>-0.05</v>
+      </c>
+      <c r="J24">
+        <v>0.36</v>
+      </c>
+      <c r="K24">
+        <v>-0.02</v>
+      </c>
+      <c r="L24">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M24">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5">
+        <f>SUBTOTAL(101,D5:D24)</f>
+        <v>3.4350000000000009</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" ref="E25:M25" si="0">SUBTOTAL(101,E5:E24)</f>
+        <v>1.3444999999999998</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.35149999999999998</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="0"/>
+        <v>-6.5500000000000017E-2</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.29750000000000004</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.2555</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="0"/>
+        <v>-9.0000000000000028E-3</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.19449999999999998</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2069999999999999</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="0"/>
+        <v>3.6464999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="5">
+        <f>STDEV(D5:D24)</f>
+        <v>0.52313327274474331</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" ref="E26:M26" si="1">STDEV(E5:E24)</f>
+        <v>9.8380303976592157E-2</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="1"/>
+        <v>6.335156708899678E-2</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+        <v>3.5165024489802646E-2</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.12095562474682479</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.17218334781028594</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.26439404404470951</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.14741545302129519</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.23855044705360326</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34604950969174708</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="5">
+        <f>D26*$A$1</f>
+        <v>0.24448016586217944</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" ref="E27:M27" si="2">E26*$A$1</f>
+        <v>4.5976874893799362E-2</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="2"/>
+        <v>2.960660779285627E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6433959504635505E-2</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="2"/>
+        <v>5.6527184831724905E-2</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="2"/>
+        <v>8.0467857092133374E-2</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.12356143856397916</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="2"/>
+        <v>6.8892873542914443E-2</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.11148373827603765</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1617221574955047</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="K28" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3.44</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G29" s="5">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="H29" s="10">
+        <v>-0.3</v>
+      </c>
+      <c r="I29" s="5">
+        <v>-0.26</v>
+      </c>
+      <c r="J29" s="5">
+        <v>-0.01</v>
+      </c>
+      <c r="K29" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="M29" s="5">
+        <v>3.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:M12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="3:13">
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>1.669</v>
+      </c>
+      <c r="E4">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.1285</v>
+      </c>
+      <c r="G4">
+        <v>-9.7000000000000031E-2</v>
+      </c>
+      <c r="H4">
+        <v>-0.38450000000000001</v>
+      </c>
+      <c r="I4">
+        <v>-0.45200000000000007</v>
+      </c>
+      <c r="J4">
+        <v>-0.26849999999999991</v>
+      </c>
+      <c r="K4">
+        <v>-0.66350000000000009</v>
+      </c>
+      <c r="L4">
+        <v>0.27400000000000008</v>
+      </c>
+      <c r="M4">
+        <v>1.294</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>2.5860000000000003</v>
+      </c>
+      <c r="E5">
+        <v>1.159</v>
+      </c>
+      <c r="F5">
+        <v>0.26</v>
+      </c>
+      <c r="G5">
+        <v>-0.11350000000000005</v>
+      </c>
+      <c r="H5">
+        <v>-0.42300000000000004</v>
+      </c>
+      <c r="I5">
+        <v>-0.4425</v>
+      </c>
+      <c r="J5">
+        <v>-0.23200000000000004</v>
+      </c>
+      <c r="K5">
+        <v>-0.42349999999999993</v>
+      </c>
+      <c r="L5">
+        <v>0.69500000000000006</v>
+      </c>
+      <c r="M5">
+        <v>2.4575</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>3.4350000000000009</v>
+      </c>
+      <c r="E6">
+        <v>1.3444999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.35149999999999998</v>
+      </c>
+      <c r="G6">
+        <v>-6.5500000000000017E-2</v>
+      </c>
+      <c r="H6">
+        <v>-0.29750000000000004</v>
+      </c>
+      <c r="I6">
+        <v>-0.2555</v>
+      </c>
+      <c r="J6">
+        <v>-9.0000000000000028E-3</v>
+      </c>
+      <c r="K6">
+        <v>-0.19449999999999998</v>
+      </c>
+      <c r="L6">
+        <v>1.2069999999999999</v>
+      </c>
+      <c r="M6">
+        <v>3.6464999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>0.29581110615782386</v>
+      </c>
+      <c r="E10">
+        <v>0.81745609893388793</v>
+      </c>
+      <c r="F10">
+        <v>0.14034825107192242</v>
+      </c>
+      <c r="G10">
+        <v>3.6577243428696157E-2</v>
+      </c>
+      <c r="H10">
+        <v>5.5675280350486314E-2</v>
+      </c>
+      <c r="I10">
+        <v>4.9161388357766546E-2</v>
+      </c>
+      <c r="J10">
+        <v>3.8151360602074622E-2</v>
+      </c>
+      <c r="K10">
+        <v>0.12282957812822561</v>
+      </c>
+      <c r="L10">
+        <v>0.22070222854382435</v>
+      </c>
+      <c r="M10">
+        <v>0.23127563869251783</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>0.13204464954584041</v>
+      </c>
+      <c r="E11">
+        <v>0.16745462857615814</v>
+      </c>
+      <c r="F11">
+        <v>0.38590972492212949</v>
+      </c>
+      <c r="G11">
+        <v>5.8962521548593973E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.11439083511319736</v>
+      </c>
+      <c r="I11">
+        <v>0.12021362563983205</v>
+      </c>
+      <c r="J11">
+        <v>7.5365774725667092E-2</v>
+      </c>
+      <c r="K11">
+        <v>0.18218772851389492</v>
+      </c>
+      <c r="L11">
+        <v>0.20904544960366864</v>
+      </c>
+      <c r="M11">
+        <v>0.26989032860346035</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0.52313327274474331</v>
+      </c>
+      <c r="E12">
+        <v>9.8380303976592157E-2</v>
+      </c>
+      <c r="F12">
+        <v>6.335156708899678E-2</v>
+      </c>
+      <c r="G12">
+        <v>3.5165024489802646E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.12095562474682479</v>
+      </c>
+      <c r="I12">
+        <v>0.17218334781028594</v>
+      </c>
+      <c r="J12">
+        <v>0.26439404404470951</v>
+      </c>
+      <c r="K12">
+        <v>0.14741545302129519</v>
+      </c>
+      <c r="L12">
+        <v>0.23855044705360326</v>
+      </c>
+      <c r="M12">
+        <v>0.34604950969174708</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/vdkdPOLIER.xlsx
+++ b/vdkdPOLIER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="23580" windowHeight="9855" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="23580" windowHeight="9855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="F13polier" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="53">
   <si>
     <t>MP1</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Fehler ger.</t>
-  </si>
-  <si>
-    <t>Feher ger</t>
   </si>
   <si>
     <r>
@@ -140,10 +137,67 @@
     <t>fehler</t>
   </si>
   <si>
-    <t>feher ger.</t>
+    <t>mit ger.</t>
   </si>
   <si>
-    <t>mit ger.</t>
+    <t>****</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>Fxx Polier Spalt</t>
+  </si>
+  <si>
+    <t>mittelw.</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>Polier Mittelwert und Fehler</t>
+  </si>
+  <si>
+    <t>fehler ger.</t>
+  </si>
+  <si>
+    <t>F ehler ger.</t>
+  </si>
+  <si>
+    <t>Mittelw. Ger</t>
+  </si>
+  <si>
+    <t>Stand.Ger</t>
+  </si>
+  <si>
+    <t>Stand.ger</t>
+  </si>
+  <si>
+    <t>Fehl</t>
+  </si>
+  <si>
+    <t>Fehl ger.</t>
+  </si>
+  <si>
+    <t>Mitt ger.</t>
+  </si>
+  <si>
+    <t>Stand ger.</t>
+  </si>
+  <si>
+    <t>ger.</t>
+  </si>
+  <si>
+    <t>Mittger.</t>
+  </si>
+  <si>
+    <t>fehlger.</t>
+  </si>
+  <si>
+    <t>F17 Spalt Polier</t>
   </si>
 </sst>
 </file>
@@ -153,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +258,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS Reference Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +287,20 @@
         <bgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -247,11 +328,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -263,6 +364,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -352,7 +461,7 @@
                     <c:v>2.8654015976455085E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.5603248149199224E-2</c:v>
+                    <c:v>2.5603248149198878E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>3.9586680375575306E-2</c:v>
@@ -391,7 +500,7 @@
                     <c:v>2.8654015976455085E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.5603248149199224E-2</c:v>
+                    <c:v>2.5603248149198878E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>3.9586680375575306E-2</c:v>
@@ -498,11 +607,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80523264"/>
-        <c:axId val="80590336"/>
+        <c:axId val="48901120"/>
+        <c:axId val="56706176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80523264"/>
+        <c:axId val="48901120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,17 +632,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80590336"/>
+        <c:crossAx val="56706176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80590336"/>
+        <c:axId val="56706176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,11 +666,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80523264"/>
+        <c:crossAx val="48901120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -577,10 +684,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3849505285122472"/>
-          <c:y val="5.0295733169492422E-2"/>
-          <c:w val="0.15743140662569546"/>
-          <c:h val="7.0574198062907739E-2"/>
+          <c:x val="0.38495052851224743"/>
+          <c:y val="5.0295733169492415E-2"/>
+          <c:w val="0.15743140662569557"/>
+          <c:h val="7.0574198062907725E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -598,7 +705,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -608,19 +715,17 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3420375168758864E-2"/>
-          <c:y val="0.11163819510276203"/>
+          <c:x val="7.342037516875885E-2"/>
+          <c:y val="0.11163819510276196"/>
           <c:w val="0.7810961569100987"/>
-          <c:h val="0.82578188782913198"/>
+          <c:h val="0.82578188782913231"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -823,11 +928,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="137608192"/>
-        <c:axId val="137692672"/>
+        <c:axId val="57443456"/>
+        <c:axId val="57515008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137608192"/>
+        <c:axId val="57443456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,17 +953,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137692672"/>
+        <c:crossAx val="57515008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137692672"/>
+        <c:axId val="57515008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +987,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -897,7 +1000,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137608192"/>
+        <c:crossAx val="57443456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -919,7 +1022,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -935,10 +1038,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.6396521685462121E-2"/>
-          <c:y val="1.548722699255353E-2"/>
-          <c:w val="0.85904831765025003"/>
-          <c:h val="0.93632965059020679"/>
+          <c:x val="0.12084285156155403"/>
+          <c:y val="1.562658530210357E-2"/>
+          <c:w val="0.77393620632527849"/>
+          <c:h val="0.96874682939579293"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -948,11 +1051,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vergleiche!$C$4</c:f>
+              <c:f>Vergleiche!$C$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fxx</c:v>
+                  <c:v>F13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -967,13 +1070,221 @@
             <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Vergleiche!$D$22:$M$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Vergleiche!$D$22:$M$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergleiche!$D$17:$M$17</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergleiche!$D$18:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergleiche!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050">
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -989,84 +1300,84 @@
             <c:noEndCap val="1"/>
             <c:plus>
               <c:numRef>
-                <c:f>Vergleiche!$D$10:$M$10</c:f>
+                <c:f>Vergleiche!$D$23:$M$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0.29581110615782386</c:v>
+                    <c:v>0.14000000000000001</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.81745609893388793</c:v>
+                    <c:v>0.4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.14034825107192242</c:v>
+                    <c:v>7.0000000000000007E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.6577243428696157E-2</c:v>
+                    <c:v>1.7999999999999999E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5.5675280350486314E-2</c:v>
+                    <c:v>2.7E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.9161388357766546E-2</c:v>
+                    <c:v>2.3E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.8151360602074622E-2</c:v>
+                    <c:v>1.7999999999999999E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.12282957812822561</c:v>
+                    <c:v>0.06</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.22070222854382435</c:v>
+                    <c:v>0.11</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.23127563869251783</c:v>
+                    <c:v>0.11</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Vergleiche!$D$10:$M$10</c:f>
+                <c:f>Vergleiche!$D$23:$M$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0.29581110615782386</c:v>
+                    <c:v>0.14000000000000001</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.81745609893388793</c:v>
+                    <c:v>0.4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.14034825107192242</c:v>
+                    <c:v>7.0000000000000007E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.6577243428696157E-2</c:v>
+                    <c:v>1.7999999999999999E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5.5675280350486314E-2</c:v>
+                    <c:v>2.7E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.9161388357766546E-2</c:v>
+                    <c:v>2.3E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.8151360602074622E-2</c:v>
+                    <c:v>1.7999999999999999E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.12282957812822561</c:v>
+                    <c:v>0.06</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.22070222854382435</c:v>
+                    <c:v>0.11</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.23127563869251783</c:v>
+                    <c:v>0.11</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
             <c:spPr>
-              <a:ln w="41275">
+              <a:ln w="44450">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -1075,7 +1386,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Vergleiche!$D$3:$M$3</c:f>
+              <c:f>Vergleiche!$D$17:$M$17</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1113,50 +1424,50 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Vergleiche!$D$4:$M$4</c:f>
+              <c:f>Vergleiche!$D$19:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.669</c:v>
+                  <c:v>1.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13150000000000001</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1285</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.7000000000000031E-2</c:v>
+                  <c:v>-9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.38450000000000001</c:v>
+                  <c:v>-0.38500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.45200000000000007</c:v>
+                  <c:v>-0.45200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.26849999999999991</c:v>
+                  <c:v>-0.26900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.66350000000000009</c:v>
+                  <c:v>-0.66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27400000000000008</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.294</c:v>
+                  <c:v>1.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vergleiche!$C$5</c:f>
+              <c:f>Vergleiche!$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1171,19 +1482,19 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
+            <c:symbol val="triangle"/>
             <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -1197,93 +1508,93 @@
             <c:noEndCap val="1"/>
             <c:plus>
               <c:numRef>
-                <c:f>Vergleiche!$D$11:$M$11</c:f>
+                <c:f>Vergleiche!$D$24:$M$24</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0.13204464954584041</c:v>
+                    <c:v>7.0000000000000007E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.16745462857615814</c:v>
+                    <c:v>0.08</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.38590972492212949</c:v>
+                    <c:v>0.19</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.8962521548593973E-2</c:v>
+                    <c:v>2.8000000000000001E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.11439083511319736</c:v>
+                    <c:v>0.06</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.12021362563983205</c:v>
+                    <c:v>0.06</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.5365774725667092E-2</c:v>
+                    <c:v>0.04</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.18218772851389492</c:v>
+                    <c:v>0.09</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.20904544960366864</c:v>
+                    <c:v>0.1</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.26989032860346035</c:v>
+                    <c:v>0.13</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Vergleiche!$D$11:$M$11</c:f>
+                <c:f>Vergleiche!$D$24:$M$24</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0.13204464954584041</c:v>
+                    <c:v>7.0000000000000007E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.16745462857615814</c:v>
+                    <c:v>0.08</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.38590972492212949</c:v>
+                    <c:v>0.19</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.8962521548593973E-2</c:v>
+                    <c:v>2.8000000000000001E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.11439083511319736</c:v>
+                    <c:v>0.06</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.12021362563983205</c:v>
+                    <c:v>0.06</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.5365774725667092E-2</c:v>
+                    <c:v>0.04</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.18218772851389492</c:v>
+                    <c:v>0.09</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.20904544960366864</c:v>
+                    <c:v>0.1</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.26989032860346035</c:v>
+                    <c:v>0.13</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
             <c:spPr>
-              <a:ln w="41275">
+              <a:ln w="44450">
                 <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Vergleiche!$D$3:$M$3</c:f>
+              <c:f>Vergleiche!$D$17:$M$17</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1321,50 +1632,50 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Vergleiche!$D$5:$M$5</c:f>
+              <c:f>Vergleiche!$D$20:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.5860000000000003</c:v>
+                  <c:v>2.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.159</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.11350000000000005</c:v>
+                  <c:v>-0.114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.42300000000000004</c:v>
+                  <c:v>-0.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.4425</c:v>
+                  <c:v>-0.44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.23200000000000004</c:v>
+                  <c:v>-0.23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.42349999999999993</c:v>
+                  <c:v>-0.42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69500000000000006</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4575</c:v>
+                  <c:v>2.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vergleiche!$C$6</c:f>
+              <c:f>Vergleiche!$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1379,7 +1690,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="circle"/>
             <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
@@ -1389,7 +1700,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050">
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
@@ -1405,84 +1716,84 @@
             <c:noEndCap val="1"/>
             <c:plus>
               <c:numRef>
-                <c:f>Vergleiche!$D$12:$M$12</c:f>
+                <c:f>Vergleiche!$D$25:$M$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0.52313327274474331</c:v>
+                    <c:v>0.25</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.8380303976592157E-2</c:v>
+                    <c:v>0.05</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.335156708899678E-2</c:v>
+                    <c:v>0.03</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.5165024489802646E-2</c:v>
+                    <c:v>1.7000000000000001E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.12095562474682479</c:v>
+                    <c:v>0.06</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.17218334781028594</c:v>
+                    <c:v>0.09</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.26439404404470951</c:v>
+                    <c:v>0.13</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.14741545302129519</c:v>
+                    <c:v>7.0000000000000007E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.23855044705360326</c:v>
+                    <c:v>0.12</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.34604950969174708</c:v>
+                    <c:v>0.17</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Vergleiche!$D$12:$M$12</c:f>
+                <c:f>Vergleiche!$D$25:$M$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0.52313327274474331</c:v>
+                    <c:v>0.25</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.8380303976592157E-2</c:v>
+                    <c:v>0.05</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.335156708899678E-2</c:v>
+                    <c:v>0.03</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.5165024489802646E-2</c:v>
+                    <c:v>1.7000000000000001E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.12095562474682479</c:v>
+                    <c:v>0.06</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.17218334781028594</c:v>
+                    <c:v>0.09</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.26439404404470951</c:v>
+                    <c:v>0.13</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.14741545302129519</c:v>
+                    <c:v>7.0000000000000007E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.23855044705360326</c:v>
+                    <c:v>0.12</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.34604950969174708</c:v>
+                    <c:v>0.17</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
             <c:spPr>
-              <a:ln w="41275">
+              <a:ln w="44450">
                 <a:solidFill>
                   <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
@@ -1491,7 +1802,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Vergleiche!$D$3:$M$3</c:f>
+              <c:f>Vergleiche!$D$17:$M$17</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1529,50 +1840,50 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Vergleiche!$D$6:$M$6</c:f>
+              <c:f>Vergleiche!$D$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.4350000000000009</c:v>
+                  <c:v>3.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3444999999999998</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35149999999999998</c:v>
+                  <c:v>0.35199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.5500000000000017E-2</c:v>
+                  <c:v>-6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.29750000000000004</c:v>
+                  <c:v>-0.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.2555</c:v>
+                  <c:v>-0.26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.0000000000000028E-3</c:v>
+                  <c:v>-0.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.19449999999999998</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2069999999999999</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6464999999999996</c:v>
+                  <c:v>3.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78622720"/>
-        <c:axId val="78624256"/>
+        <c:axId val="60165120"/>
+        <c:axId val="62215680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78622720"/>
+        <c:axId val="60165120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1584,16 +1895,27 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="1"/>
+                  <a:defRPr sz="1800" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1" i="1"/>
+                  <a:rPr lang="en-US" sz="1800" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>Messpunkte</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40789661617704553"/>
+              <c:y val="0.96088541666666683"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -1601,23 +1923,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="1"/>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78624256"/>
+        <c:crossAx val="62215680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="10"/>
+        <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78624256"/>
+        <c:axId val="62215680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4.25"/>
-          <c:min val="-1"/>
+          <c:max val="3.8"/>
+          <c:min val="-1.2"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -1627,15 +1951,15 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600">
+                  <a:defRPr sz="1800" i="1">
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600">
+                  <a:rPr lang="en-US" sz="1800" i="1">
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t> ± s [mm]</a:t>
+                  <a:t>x = (±∆) [mm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1649,23 +1973,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="1"/>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78622720"/>
+        <c:crossAx val="60165120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
+      <c:legendPos val="t"/>
       <c:legendEntry>
         <c:idx val="4"/>
         <c:delete val="1"/>
@@ -1674,14 +1996,22 @@
         <c:idx val="5"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.44353318280629767"/>
-          <c:y val="8.9607520761432385E-2"/>
-          <c:w val="4.4264545704733392E-2"/>
-          <c:h val="0.10312250338786391"/>
+          <c:x val="0.35581786448087382"/>
+          <c:y val="5.8494623655913992E-2"/>
+          <c:w val="0.32120604369530398"/>
+          <c:h val="3.966838206359577E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1689,7 +2019,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="1"/>
+            <a:defRPr sz="1200" b="1" i="1">
+              <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="de-DE"/>
         </a:p>
@@ -1699,7 +2031,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1774,20 +2106,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1806,8 +2138,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="C3:M28" totalsRowShown="0">
-  <autoFilter ref="C3:M28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="C3:M29" totalsRowShown="0">
+  <autoFilter ref="C3:M29"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Spalte1"/>
     <tableColumn id="2" name="MP1"/>
@@ -1846,8 +2178,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="C4:M26" totalsRowShown="0">
-  <autoFilter ref="C4:M26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="C4:M30" totalsRowShown="0">
+  <autoFilter ref="C4:M30"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Nr."/>
     <tableColumn id="2" name="MP1"/>
@@ -1866,8 +2198,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="C4:M26" totalsRowShown="0">
-  <autoFilter ref="C4:M26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="O4:Y25" totalsRowShown="0">
+  <autoFilter ref="O4:Y25"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Nr."/>
     <tableColumn id="2" name="MP1"/>
@@ -1881,13 +2213,13 @@
     <tableColumn id="10" name="MP9"/>
     <tableColumn id="11" name="MP10"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="C4:M29" totalsRowShown="0">
-  <autoFilter ref="C4:M29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="C4:M30" totalsRowShown="0">
+  <autoFilter ref="C4:M30"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Nr."/>
     <tableColumn id="2" name="MP1"/>
@@ -1906,6 +2238,46 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="O4:Y24" totalsRowShown="0">
+  <autoFilter ref="O4:Y24"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr."/>
+    <tableColumn id="2" name="MP1"/>
+    <tableColumn id="3" name="MP2"/>
+    <tableColumn id="4" name="MP3"/>
+    <tableColumn id="5" name="MP4"/>
+    <tableColumn id="6" name="MP5"/>
+    <tableColumn id="7" name="MP6"/>
+    <tableColumn id="8" name="MP7"/>
+    <tableColumn id="9" name="MP8"/>
+    <tableColumn id="10" name="MP9"/>
+    <tableColumn id="11" name="MP10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="C4:M30" totalsRowShown="0">
+  <autoFilter ref="C4:M30"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr."/>
+    <tableColumn id="2" name="MP1"/>
+    <tableColumn id="3" name="MP2"/>
+    <tableColumn id="4" name="MP3"/>
+    <tableColumn id="5" name="MP4"/>
+    <tableColumn id="6" name="MP5"/>
+    <tableColumn id="7" name="MP6"/>
+    <tableColumn id="8" name="MP7"/>
+    <tableColumn id="9" name="MP8"/>
+    <tableColumn id="10" name="MP9"/>
+    <tableColumn id="11" name="MP10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="C3:M6" totalsRowShown="0">
   <autoFilter ref="C3:M6"/>
   <tableColumns count="11">
@@ -2212,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="Q74" sqref="Q74"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3698,7 +4070,7 @@
         <f t="shared" si="0"/>
         <v>0.18100000000000002</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q24">
@@ -3764,7 +4136,7 @@
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>2.5603248149199224E-2</v>
+        <v>2.5603248149198878E-2</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
@@ -3786,7 +4158,7 @@
         <f t="shared" si="2"/>
         <v>0.27472282682541571</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q25">
@@ -3799,35 +4171,35 @@
       </c>
       <c r="S25">
         <f t="shared" si="3"/>
-        <v>0.11008489546947992</v>
+        <v>0.11008489546947982</v>
       </c>
       <c r="T25">
         <f t="shared" si="3"/>
-        <v>0.11224503271156833</v>
+        <v>0.11224503271156434</v>
       </c>
       <c r="U25">
         <f t="shared" si="3"/>
-        <v>0.15755617210512909</v>
+        <v>0.15755617210511455</v>
       </c>
       <c r="V25">
         <f t="shared" si="3"/>
-        <v>0.22284996132635496</v>
+        <v>0.22284996132634791</v>
       </c>
       <c r="W25">
         <f t="shared" si="3"/>
-        <v>0.16323941087604402</v>
+        <v>0.16323941087604305</v>
       </c>
       <c r="X25">
         <f t="shared" si="3"/>
-        <v>5.7112538949543858E-2</v>
+        <v>5.7112538949539049E-2</v>
       </c>
       <c r="Y25">
         <f t="shared" si="3"/>
-        <v>0.10535154184168855</v>
+        <v>0.10535154184168931</v>
       </c>
       <c r="Z25">
         <f t="shared" si="3"/>
-        <v>0.21584290095978798</v>
+        <v>0.21584290095978845</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -3856,7 +4228,7 @@
       </c>
       <c r="H26">
         <f t="shared" si="4"/>
-        <v>1.1965376091038675E-2</v>
+        <v>1.1965376091038512E-2</v>
       </c>
       <c r="I26">
         <f t="shared" si="4"/>
@@ -3878,9 +4250,6 @@
         <f t="shared" si="4"/>
         <v>0.12838847339227924</v>
       </c>
-      <c r="P26" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="27" spans="1:26">
       <c r="C27" s="3" t="s">
@@ -3916,13 +4285,10 @@
       <c r="M27">
         <v>0.13</v>
       </c>
-      <c r="P27" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="28" spans="1:26">
       <c r="C28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28">
         <v>0.42</v>
@@ -3953,6 +4319,41 @@
       </c>
       <c r="M28">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="C29" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="J29" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.158</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="35" spans="3:13" ht="15.75" thickBot="1">
@@ -3992,7 +4393,7 @@
     </row>
     <row r="36" spans="3:13" ht="15.75" thickTop="1">
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>0.42449999999999999</v>
@@ -4027,7 +4428,7 @@
     </row>
     <row r="37" spans="3:13">
       <c r="C37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37">
         <v>0.42</v>
@@ -4073,23 +4474,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:M26"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="3:13" ht="21">
+    <row r="1" spans="1:25">
+      <c r="A1">
+        <v>0.46733820729745601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="21">
       <c r="F2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="6"/>
-    </row>
-    <row r="4" spans="3:13">
+      <c r="S2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="4" spans="1:25">
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -4121,8 +4531,41 @@
       <c r="M4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="3:13">
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="C5">
         <v>1</v>
       </c>
@@ -4156,8 +4599,41 @@
       <c r="M5">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="6" spans="3:13">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>-2.97</v>
+      </c>
+      <c r="Q5">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="R5">
+        <v>-2.66</v>
+      </c>
+      <c r="S5">
+        <v>-2.98</v>
+      </c>
+      <c r="T5">
+        <v>-2.96</v>
+      </c>
+      <c r="U5">
+        <v>-2.67</v>
+      </c>
+      <c r="V5">
+        <v>-2.72</v>
+      </c>
+      <c r="W5">
+        <v>-2.8</v>
+      </c>
+      <c r="X5">
+        <v>-2.66</v>
+      </c>
+      <c r="Y5">
+        <v>-3.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="C6">
         <v>2</v>
       </c>
@@ -4191,8 +4667,41 @@
       <c r="M6">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="7" spans="3:13">
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>-2.82</v>
+      </c>
+      <c r="Q6">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="R6">
+        <v>-2.57</v>
+      </c>
+      <c r="S6">
+        <v>-3.11</v>
+      </c>
+      <c r="T6">
+        <v>-3.18</v>
+      </c>
+      <c r="U6">
+        <v>-2.88</v>
+      </c>
+      <c r="V6">
+        <v>-2.83</v>
+      </c>
+      <c r="W6">
+        <v>-2.75</v>
+      </c>
+      <c r="X6">
+        <v>-2.65</v>
+      </c>
+      <c r="Y6">
+        <v>-3.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="C7">
         <v>3</v>
       </c>
@@ -4226,8 +4735,41 @@
       <c r="M7">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="8" spans="3:13">
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>-2.92</v>
+      </c>
+      <c r="Q7">
+        <v>-2.44</v>
+      </c>
+      <c r="R7">
+        <v>-2.62</v>
+      </c>
+      <c r="S7">
+        <v>-2.91</v>
+      </c>
+      <c r="T7">
+        <v>-2.87</v>
+      </c>
+      <c r="U7">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="V7">
+        <v>-2.66</v>
+      </c>
+      <c r="W7">
+        <v>-2.65</v>
+      </c>
+      <c r="X7">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="Y7">
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="C8">
         <v>4</v>
       </c>
@@ -4261,8 +4803,41 @@
       <c r="M8">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="9" spans="3:13">
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8">
+        <v>-2.52</v>
+      </c>
+      <c r="R8">
+        <v>-2.58</v>
+      </c>
+      <c r="S8">
+        <v>-3.1</v>
+      </c>
+      <c r="T8">
+        <v>-3.18</v>
+      </c>
+      <c r="U8">
+        <v>-2.92</v>
+      </c>
+      <c r="V8">
+        <v>-2.83</v>
+      </c>
+      <c r="W8">
+        <v>-2.62</v>
+      </c>
+      <c r="X8">
+        <v>-2.5</v>
+      </c>
+      <c r="Y8">
+        <v>-3.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="C9">
         <v>5</v>
       </c>
@@ -4296,8 +4871,41 @@
       <c r="M9">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="10" spans="3:13">
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>-2.8</v>
+      </c>
+      <c r="Q9">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="R9">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="S9">
+        <v>-3.09</v>
+      </c>
+      <c r="T9">
+        <v>-3.19</v>
+      </c>
+      <c r="U9">
+        <v>-2.93</v>
+      </c>
+      <c r="V9">
+        <v>-2.82</v>
+      </c>
+      <c r="W9">
+        <v>-2.63</v>
+      </c>
+      <c r="X9">
+        <v>-2.48</v>
+      </c>
+      <c r="Y9">
+        <v>-2.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="C10">
         <v>6</v>
       </c>
@@ -4331,8 +4939,41 @@
       <c r="M10">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="3:13">
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>-3.14</v>
+      </c>
+      <c r="Q10">
+        <v>-2.61</v>
+      </c>
+      <c r="R10">
+        <v>-2.75</v>
+      </c>
+      <c r="S10">
+        <v>3.06</v>
+      </c>
+      <c r="T10">
+        <v>-2.83</v>
+      </c>
+      <c r="U10">
+        <v>-2.5</v>
+      </c>
+      <c r="V10">
+        <v>-2.56</v>
+      </c>
+      <c r="W10">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="X10">
+        <v>-2.34</v>
+      </c>
+      <c r="Y10">
+        <v>-3.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="C11">
         <v>7</v>
       </c>
@@ -4366,8 +5007,41 @@
       <c r="M11">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="12" spans="3:13">
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>-2.9</v>
+      </c>
+      <c r="Q11">
+        <v>-2.41</v>
+      </c>
+      <c r="R11">
+        <v>-2.64</v>
+      </c>
+      <c r="S11">
+        <v>-3.04</v>
+      </c>
+      <c r="T11">
+        <v>-3.03</v>
+      </c>
+      <c r="U11">
+        <v>-2.72</v>
+      </c>
+      <c r="V11">
+        <v>-2.77</v>
+      </c>
+      <c r="W11">
+        <v>-2.75</v>
+      </c>
+      <c r="X11">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="Y11">
+        <v>-3.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="C12">
         <v>8</v>
       </c>
@@ -4401,8 +5075,41 @@
       <c r="M12">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="13" spans="3:13">
+      <c r="O12">
+        <v>8</v>
+      </c>
+      <c r="P12">
+        <v>-2.65</v>
+      </c>
+      <c r="Q12">
+        <v>-2.48</v>
+      </c>
+      <c r="R12">
+        <v>-2.56</v>
+      </c>
+      <c r="S12">
+        <v>-3.1</v>
+      </c>
+      <c r="T12">
+        <v>-3.14</v>
+      </c>
+      <c r="U12">
+        <v>-2.88</v>
+      </c>
+      <c r="V12">
+        <v>-2.82</v>
+      </c>
+      <c r="W12">
+        <v>-2.67</v>
+      </c>
+      <c r="X12">
+        <v>-2.54</v>
+      </c>
+      <c r="Y12">
+        <v>-2.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="C13">
         <v>9</v>
       </c>
@@ -4436,8 +5143,41 @@
       <c r="M13">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="14" spans="3:13">
+      <c r="O13">
+        <v>9</v>
+      </c>
+      <c r="P13">
+        <v>-2.91</v>
+      </c>
+      <c r="Q13">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="R13">
+        <v>-2.71</v>
+      </c>
+      <c r="S13">
+        <v>-3.04</v>
+      </c>
+      <c r="T13">
+        <v>-3.04</v>
+      </c>
+      <c r="U13">
+        <v>-2.73</v>
+      </c>
+      <c r="V13">
+        <v>-2.72</v>
+      </c>
+      <c r="W13">
+        <v>-2.79</v>
+      </c>
+      <c r="X13">
+        <v>-2.5</v>
+      </c>
+      <c r="Y13">
+        <v>-3.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="C14">
         <v>10</v>
       </c>
@@ -4471,8 +5211,41 @@
       <c r="M14">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="15" spans="3:13">
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>-2.95</v>
+      </c>
+      <c r="Q14">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="R14">
+        <v>-2.71</v>
+      </c>
+      <c r="S14">
+        <v>-3.06</v>
+      </c>
+      <c r="T14">
+        <v>-3.01</v>
+      </c>
+      <c r="U14">
+        <v>-2.65</v>
+      </c>
+      <c r="V14">
+        <v>-2.73</v>
+      </c>
+      <c r="W14">
+        <v>-2.69</v>
+      </c>
+      <c r="X14">
+        <v>-2.41</v>
+      </c>
+      <c r="Y14">
+        <v>-3.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="C15">
         <v>11</v>
       </c>
@@ -4506,8 +5279,42 @@
       <c r="M15">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="16" spans="3:13">
+      <c r="O15">
+        <v>11</v>
+      </c>
+      <c r="P15">
+        <v>-3.03</v>
+      </c>
+      <c r="Q15">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="R15">
+        <v>-2.56</v>
+      </c>
+      <c r="S15">
+        <v>-3.07</v>
+      </c>
+      <c r="T15">
+        <v>-3.15</v>
+      </c>
+      <c r="U15">
+        <v>-2.89</v>
+      </c>
+      <c r="V15">
+        <v>-2.86</v>
+      </c>
+      <c r="W15">
+        <v>-2.68</v>
+      </c>
+      <c r="X15">
+        <v>-2.5</v>
+      </c>
+      <c r="Y15">
+        <v>-2.63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75">
+      <c r="B16" s="18"/>
       <c r="C16">
         <v>12</v>
       </c>
@@ -4541,8 +5348,41 @@
       <c r="M16">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="17" spans="3:13">
+      <c r="O16">
+        <v>12</v>
+      </c>
+      <c r="P16">
+        <v>-2.92</v>
+      </c>
+      <c r="Q16">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="R16">
+        <v>-2.72</v>
+      </c>
+      <c r="S16">
+        <v>-3.05</v>
+      </c>
+      <c r="T16">
+        <v>-2.95</v>
+      </c>
+      <c r="U16">
+        <v>-2.61</v>
+      </c>
+      <c r="V16">
+        <v>-2.71</v>
+      </c>
+      <c r="W16">
+        <v>-2.67</v>
+      </c>
+      <c r="X16">
+        <v>-2.44</v>
+      </c>
+      <c r="Y16">
+        <v>-3.23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:25">
       <c r="C17">
         <v>13</v>
       </c>
@@ -4576,8 +5416,41 @@
       <c r="M17">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="18" spans="3:13">
+      <c r="O17">
+        <v>13</v>
+      </c>
+      <c r="P17">
+        <v>-2.85</v>
+      </c>
+      <c r="Q17">
+        <v>-2.5</v>
+      </c>
+      <c r="R17">
+        <v>-2.58</v>
+      </c>
+      <c r="S17">
+        <v>-3.15</v>
+      </c>
+      <c r="T17">
+        <v>-3.23</v>
+      </c>
+      <c r="U17">
+        <v>-2.92</v>
+      </c>
+      <c r="V17">
+        <v>-2.93</v>
+      </c>
+      <c r="W17">
+        <v>-2.74</v>
+      </c>
+      <c r="X17">
+        <v>-2.66</v>
+      </c>
+      <c r="Y17">
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25">
       <c r="C18">
         <v>14</v>
       </c>
@@ -4611,8 +5484,41 @@
       <c r="M18">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="19" spans="3:13">
+      <c r="O18">
+        <v>14</v>
+      </c>
+      <c r="P18">
+        <v>-2.98</v>
+      </c>
+      <c r="Q18">
+        <v>-2.42</v>
+      </c>
+      <c r="R18">
+        <v>-2.67</v>
+      </c>
+      <c r="S18">
+        <v>-3.02</v>
+      </c>
+      <c r="T18">
+        <v>-2.97</v>
+      </c>
+      <c r="U18">
+        <v>-2.59</v>
+      </c>
+      <c r="V18">
+        <v>-2.65</v>
+      </c>
+      <c r="W18">
+        <v>-2.78</v>
+      </c>
+      <c r="X18">
+        <v>-2.62</v>
+      </c>
+      <c r="Y18">
+        <v>-3.36</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25">
       <c r="C19">
         <v>15</v>
       </c>
@@ -4646,8 +5552,41 @@
       <c r="M19">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="20" spans="3:13">
+      <c r="O19">
+        <v>15</v>
+      </c>
+      <c r="P19">
+        <v>-2.71</v>
+      </c>
+      <c r="Q19">
+        <v>-2.52</v>
+      </c>
+      <c r="R19">
+        <v>-2.9</v>
+      </c>
+      <c r="S19">
+        <v>-3.41</v>
+      </c>
+      <c r="T19">
+        <v>-3.4</v>
+      </c>
+      <c r="U19">
+        <v>-3</v>
+      </c>
+      <c r="V19">
+        <v>-2.92</v>
+      </c>
+      <c r="W19">
+        <v>-2.75</v>
+      </c>
+      <c r="X19">
+        <v>-2.6</v>
+      </c>
+      <c r="Y19">
+        <v>-3.27</v>
+      </c>
+    </row>
+    <row r="20" spans="3:25">
       <c r="C20">
         <v>16</v>
       </c>
@@ -4681,8 +5620,41 @@
       <c r="M20">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="3:13">
+      <c r="O20">
+        <v>16</v>
+      </c>
+      <c r="P20">
+        <v>-2.94</v>
+      </c>
+      <c r="Q20">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="R20">
+        <v>-2.66</v>
+      </c>
+      <c r="S20">
+        <v>-2.97</v>
+      </c>
+      <c r="T20">
+        <v>-2.88</v>
+      </c>
+      <c r="U20">
+        <v>-2.57</v>
+      </c>
+      <c r="V20">
+        <v>-2.66</v>
+      </c>
+      <c r="W20">
+        <v>-2.67</v>
+      </c>
+      <c r="X20">
+        <v>-2.41</v>
+      </c>
+      <c r="Y20">
+        <v>-3.25</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25">
       <c r="C21">
         <v>17</v>
       </c>
@@ -4716,8 +5688,41 @@
       <c r="M21">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="22" spans="3:13">
+      <c r="O21">
+        <v>17</v>
+      </c>
+      <c r="P21">
+        <v>-2.8</v>
+      </c>
+      <c r="Q21">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="R21">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="S21">
+        <v>-3.15</v>
+      </c>
+      <c r="T21">
+        <v>-3.2</v>
+      </c>
+      <c r="U21">
+        <v>-2.88</v>
+      </c>
+      <c r="V21">
+        <v>-2.88</v>
+      </c>
+      <c r="W21">
+        <v>-2.6</v>
+      </c>
+      <c r="X21">
+        <v>-2.46</v>
+      </c>
+      <c r="Y21">
+        <v>-2.71</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25">
       <c r="C22">
         <v>18</v>
       </c>
@@ -4751,8 +5756,41 @@
       <c r="M22">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="23" spans="3:13">
+      <c r="O22">
+        <v>18</v>
+      </c>
+      <c r="P22">
+        <v>-2.93</v>
+      </c>
+      <c r="Q22">
+        <v>-2.54</v>
+      </c>
+      <c r="R22">
+        <v>-2.77</v>
+      </c>
+      <c r="S22">
+        <v>-3.09</v>
+      </c>
+      <c r="T22">
+        <v>-3.05</v>
+      </c>
+      <c r="U22">
+        <v>-2.72</v>
+      </c>
+      <c r="V22">
+        <v>-2.78</v>
+      </c>
+      <c r="W22">
+        <v>-2.73</v>
+      </c>
+      <c r="X22">
+        <v>-2.5</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25">
       <c r="C23">
         <v>19</v>
       </c>
@@ -4786,8 +5824,41 @@
       <c r="M23">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="24" spans="3:13">
+      <c r="O23">
+        <v>19</v>
+      </c>
+      <c r="P23">
+        <v>-3.07</v>
+      </c>
+      <c r="Q23">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="R23">
+        <v>2.71</v>
+      </c>
+      <c r="S23">
+        <v>-3.07</v>
+      </c>
+      <c r="T23">
+        <v>-2.98</v>
+      </c>
+      <c r="U23">
+        <v>-2.66</v>
+      </c>
+      <c r="V23">
+        <v>-2.72</v>
+      </c>
+      <c r="W23">
+        <v>-2.79</v>
+      </c>
+      <c r="X23">
+        <v>-2.6</v>
+      </c>
+      <c r="Y23">
+        <v>-3.23</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25">
       <c r="C24">
         <v>20</v>
       </c>
@@ -4821,9 +5892,42 @@
       <c r="M24">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="5" t="s">
+      <c r="O24">
+        <v>20</v>
+      </c>
+      <c r="P24">
+        <v>-2.96</v>
+      </c>
+      <c r="Q24">
+        <v>-2.66</v>
+      </c>
+      <c r="R24">
+        <v>-2.68</v>
+      </c>
+      <c r="S24">
+        <v>-3.3</v>
+      </c>
+      <c r="T24">
+        <v>-3.36</v>
+      </c>
+      <c r="U24">
+        <v>-3.04</v>
+      </c>
+      <c r="V24">
+        <v>-3.05</v>
+      </c>
+      <c r="W24">
+        <v>-2.64</v>
+      </c>
+      <c r="X24">
+        <v>-2.56</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25">
+      <c r="C25" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="5">
@@ -4866,9 +5970,50 @@
         <f t="shared" si="0"/>
         <v>1.294</v>
       </c>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="C26" s="5" t="s">
+      <c r="O25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" s="5">
+        <v>-2.9078947368421049</v>
+      </c>
+      <c r="Q25" s="5">
+        <f>SUBTOTAL(101,Q5:Q24)</f>
+        <v>-2.4930000000000008</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" ref="R25:X25" si="1">SUBTOTAL(101,R5:R24)</f>
+        <v>-2.3855</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.7824999999999998</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.0799999999999996</v>
+      </c>
+      <c r="U25" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.7645</v>
+      </c>
+      <c r="V25" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.7809999999999997</v>
+      </c>
+      <c r="W25" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.6975000000000002</v>
+      </c>
+      <c r="X25" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.5244999999999997</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>-3.1164705882352939</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25">
+      <c r="C26" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="5">
@@ -4876,69 +6021,286 @@
         <v>0.29581110615782386</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" ref="E26:M26" si="1">STDEV(E5:E24)</f>
+        <f t="shared" ref="E26:M26" si="2">STDEV(E5:E24)</f>
         <v>0.81745609893388793</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14034825107192242</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6577243428696157E-2</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5675280350486314E-2</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9161388357766546E-2</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8151360602074622E-2</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12282957812822561</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22070222854382435</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23127563869251783</v>
       </c>
+    </row>
+    <row r="27" spans="3:25">
+      <c r="C27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="5">
+        <f>D26*$A$1</f>
+        <v>0.13824383205047486</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" ref="E27:M27" si="3">E26*$A$1</f>
+        <v>0.38202846782013505</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="3"/>
+        <v>6.5590100053285486E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="3"/>
+        <v>1.7093943371849517E-2</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="3"/>
+        <v>2.6019185709779551E-2</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="3"/>
+        <v>2.2974995103372642E-2</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="3"/>
+        <v>1.7829588469732347E-2</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="3"/>
+        <v>5.740295484554777E-2</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="3"/>
+        <v>0.1031425838342243</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10808394237813543</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25">
+      <c r="C28" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F28" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I28" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25">
+      <c r="C29" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="G29" s="5">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="H29" s="5">
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="I29" s="5">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="J29" s="5">
+        <v>-0.26900000000000002</v>
+      </c>
+      <c r="K29" s="5">
+        <v>-0.66</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25">
+      <c r="C30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H30" s="5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="J30" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.123</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.221</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="17:26">
+      <c r="Z42" s="12"/>
+    </row>
+    <row r="43" spans="17:26">
+      <c r="Z43" s="13"/>
+    </row>
+    <row r="44" spans="17:26">
+      <c r="Z44" s="14"/>
+    </row>
+    <row r="45" spans="17:26">
+      <c r="Z45" s="12"/>
+    </row>
+    <row r="46" spans="17:26">
+      <c r="Z46" s="13"/>
+    </row>
+    <row r="47" spans="17:26">
+      <c r="Q47" s="13"/>
+      <c r="Z47" s="14"/>
+    </row>
+    <row r="48" spans="17:26">
+      <c r="Z48" s="13"/>
+    </row>
+    <row r="49" spans="26:26">
+      <c r="Z49" s="14"/>
+    </row>
+    <row r="50" spans="26:26">
+      <c r="Z50" s="13"/>
+    </row>
+    <row r="51" spans="26:26">
+      <c r="Z51" s="14"/>
+    </row>
+    <row r="52" spans="26:26">
+      <c r="Z52" s="13"/>
+    </row>
+    <row r="53" spans="26:26">
+      <c r="Z53" s="14"/>
+    </row>
+    <row r="54" spans="26:26">
+      <c r="Z54" s="13"/>
+    </row>
+    <row r="55" spans="26:26">
+      <c r="Z55" s="14"/>
+    </row>
+    <row r="56" spans="26:26">
+      <c r="Z56" s="13"/>
+    </row>
+    <row r="57" spans="26:26">
+      <c r="Z57" s="14"/>
+    </row>
+    <row r="58" spans="26:26">
+      <c r="Z58" s="13"/>
+    </row>
+    <row r="59" spans="26:26">
+      <c r="Z59" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:M26"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:M26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="3:13" ht="21">
+    <row r="1" spans="1:25">
+      <c r="A1">
+        <v>0.46733820729745601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="21">
       <c r="G2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="3:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="18.75">
+      <c r="S3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="11"/>
+    </row>
+    <row r="4" spans="1:25">
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -4970,8 +6332,41 @@
       <c r="M4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="3:13">
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="C5">
         <v>1</v>
       </c>
@@ -5005,8 +6400,41 @@
       <c r="M5">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="6" spans="3:13">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5">
+        <v>-2.76</v>
+      </c>
+      <c r="S5">
+        <v>-3.09</v>
+      </c>
+      <c r="T5">
+        <v>-3.14</v>
+      </c>
+      <c r="U5">
+        <v>-2.75</v>
+      </c>
+      <c r="V5">
+        <v>-2.88</v>
+      </c>
+      <c r="W5">
+        <v>-2.82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="C6">
         <v>2</v>
       </c>
@@ -5040,8 +6468,41 @@
       <c r="M6">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="7" spans="3:13">
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6">
+        <v>-2.79</v>
+      </c>
+      <c r="S6">
+        <v>-3.16</v>
+      </c>
+      <c r="T6">
+        <v>-3.08</v>
+      </c>
+      <c r="U6">
+        <v>-2.77</v>
+      </c>
+      <c r="V6">
+        <v>-2.82</v>
+      </c>
+      <c r="W6">
+        <v>-2.74</v>
+      </c>
+      <c r="X6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="C7">
         <v>3</v>
       </c>
@@ -5075,8 +6536,41 @@
       <c r="M7">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="3:13">
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7">
+        <v>-2.67</v>
+      </c>
+      <c r="S7">
+        <v>-3.18</v>
+      </c>
+      <c r="T7">
+        <v>-3.25</v>
+      </c>
+      <c r="U7">
+        <v>-2.97</v>
+      </c>
+      <c r="V7">
+        <v>-2.95</v>
+      </c>
+      <c r="W7">
+        <v>-2.72</v>
+      </c>
+      <c r="X7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="C8">
         <v>4</v>
       </c>
@@ -5110,8 +6604,41 @@
       <c r="M8">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="9" spans="3:13">
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8">
+        <v>-2.76</v>
+      </c>
+      <c r="S8">
+        <v>-3.03</v>
+      </c>
+      <c r="T8">
+        <v>-3.08</v>
+      </c>
+      <c r="U8">
+        <v>-2.76</v>
+      </c>
+      <c r="V8">
+        <v>-2.81</v>
+      </c>
+      <c r="W8">
+        <v>-2.75</v>
+      </c>
+      <c r="X8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="C9">
         <v>5</v>
       </c>
@@ -5145,8 +6672,41 @@
       <c r="M9">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="3:13">
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9">
+        <v>-2.72</v>
+      </c>
+      <c r="S9">
+        <v>-3.16</v>
+      </c>
+      <c r="T9">
+        <v>-3.25</v>
+      </c>
+      <c r="U9">
+        <v>-2.88</v>
+      </c>
+      <c r="V9">
+        <v>-3.03</v>
+      </c>
+      <c r="W9">
+        <v>-2.65</v>
+      </c>
+      <c r="X9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="C10">
         <v>6</v>
       </c>
@@ -5180,8 +6740,41 @@
       <c r="M10">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="11" spans="3:13">
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10">
+        <v>-2.84</v>
+      </c>
+      <c r="S10">
+        <v>-3.06</v>
+      </c>
+      <c r="T10">
+        <v>-3.07</v>
+      </c>
+      <c r="U10">
+        <v>-2.77</v>
+      </c>
+      <c r="V10">
+        <v>-2.84</v>
+      </c>
+      <c r="W10">
+        <v>-2.78</v>
+      </c>
+      <c r="X10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="C11">
         <v>7</v>
       </c>
@@ -5215,8 +6808,41 @@
       <c r="M11">
         <v>2.0299999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="3:13">
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11">
+        <v>-2.67</v>
+      </c>
+      <c r="R11">
+        <v>-2.69</v>
+      </c>
+      <c r="S11">
+        <v>-3.12</v>
+      </c>
+      <c r="T11">
+        <v>-3.2</v>
+      </c>
+      <c r="U11">
+        <v>-2.86</v>
+      </c>
+      <c r="V11">
+        <v>-2.99</v>
+      </c>
+      <c r="W11">
+        <v>-2.68</v>
+      </c>
+      <c r="X11">
+        <v>-2.61</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="C12">
         <v>8</v>
       </c>
@@ -5250,8 +6876,41 @@
       <c r="M12">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="3:13">
+      <c r="O12">
+        <v>8</v>
+      </c>
+      <c r="P12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12">
+        <v>-2.8</v>
+      </c>
+      <c r="S12">
+        <v>-3.04</v>
+      </c>
+      <c r="T12">
+        <v>-3.1</v>
+      </c>
+      <c r="U12">
+        <v>-2.77</v>
+      </c>
+      <c r="V12">
+        <v>-2.8</v>
+      </c>
+      <c r="W12">
+        <v>-2.7</v>
+      </c>
+      <c r="X12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="C13">
         <v>9</v>
       </c>
@@ -5285,8 +6944,41 @@
       <c r="M13">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="14" spans="3:13">
+      <c r="O13">
+        <v>9</v>
+      </c>
+      <c r="P13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13">
+        <v>-3.58</v>
+      </c>
+      <c r="S13">
+        <v>-3.06</v>
+      </c>
+      <c r="T13">
+        <v>-4.25</v>
+      </c>
+      <c r="U13">
+        <v>-3.51</v>
+      </c>
+      <c r="V13">
+        <v>-3.25</v>
+      </c>
+      <c r="W13">
+        <v>-2.79</v>
+      </c>
+      <c r="X13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="C14">
         <v>10</v>
       </c>
@@ -5320,8 +7012,41 @@
       <c r="M14">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="15" spans="3:13">
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14">
+        <v>-2.84</v>
+      </c>
+      <c r="S14">
+        <v>-3.06</v>
+      </c>
+      <c r="T14">
+        <v>-3.15</v>
+      </c>
+      <c r="U14">
+        <v>-2.83</v>
+      </c>
+      <c r="V14">
+        <v>-2.91</v>
+      </c>
+      <c r="W14">
+        <v>-2.82</v>
+      </c>
+      <c r="X14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="C15">
         <v>11</v>
       </c>
@@ -5355,8 +7080,41 @@
       <c r="M15">
         <v>2.61</v>
       </c>
-    </row>
-    <row r="16" spans="3:13">
+      <c r="O15">
+        <v>11</v>
+      </c>
+      <c r="P15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15">
+        <v>-2.66</v>
+      </c>
+      <c r="S15">
+        <v>-3.17</v>
+      </c>
+      <c r="T15">
+        <v>-3.34</v>
+      </c>
+      <c r="U15">
+        <v>-3.18</v>
+      </c>
+      <c r="V15">
+        <v>-3.54</v>
+      </c>
+      <c r="W15">
+        <v>-3.54</v>
+      </c>
+      <c r="X15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="C16">
         <v>12</v>
       </c>
@@ -5390,8 +7148,41 @@
       <c r="M16">
         <v>2.59</v>
       </c>
-    </row>
-    <row r="17" spans="3:13">
+      <c r="O16">
+        <v>12</v>
+      </c>
+      <c r="P16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16">
+        <v>-2.89</v>
+      </c>
+      <c r="S16">
+        <v>-3.21</v>
+      </c>
+      <c r="T16">
+        <v>-3.25</v>
+      </c>
+      <c r="U16">
+        <v>-2.89</v>
+      </c>
+      <c r="V16">
+        <v>-2.87</v>
+      </c>
+      <c r="W16">
+        <v>-2.79</v>
+      </c>
+      <c r="X16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="3:25">
       <c r="C17">
         <v>13</v>
       </c>
@@ -5425,8 +7216,41 @@
       <c r="M17">
         <v>2.29</v>
       </c>
-    </row>
-    <row r="18" spans="3:13">
+      <c r="O17">
+        <v>13</v>
+      </c>
+      <c r="P17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17">
+        <v>-3</v>
+      </c>
+      <c r="S17">
+        <v>-3.17</v>
+      </c>
+      <c r="T17">
+        <v>-3.12</v>
+      </c>
+      <c r="U17">
+        <v>-2.97</v>
+      </c>
+      <c r="V17">
+        <v>-3.03</v>
+      </c>
+      <c r="W17">
+        <v>-2.7</v>
+      </c>
+      <c r="X17">
+        <v>-2.82</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25">
       <c r="C18">
         <v>14</v>
       </c>
@@ -5460,8 +7284,41 @@
       <c r="M18">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="19" spans="3:13">
+      <c r="O18">
+        <v>14</v>
+      </c>
+      <c r="P18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18">
+        <v>-3.13</v>
+      </c>
+      <c r="S18">
+        <v>-3.14</v>
+      </c>
+      <c r="T18">
+        <v>-3.1</v>
+      </c>
+      <c r="U18">
+        <v>-2.78</v>
+      </c>
+      <c r="V18">
+        <v>-2.78</v>
+      </c>
+      <c r="W18">
+        <v>-2.72</v>
+      </c>
+      <c r="X18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25">
       <c r="C19">
         <v>15</v>
       </c>
@@ -5495,8 +7352,41 @@
       <c r="M19">
         <v>2.96</v>
       </c>
-    </row>
-    <row r="20" spans="3:13">
+      <c r="O19">
+        <v>15</v>
+      </c>
+      <c r="P19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19">
+        <v>-3.11</v>
+      </c>
+      <c r="S19">
+        <v>-3.19</v>
+      </c>
+      <c r="T19">
+        <v>-3.13</v>
+      </c>
+      <c r="U19">
+        <v>-2.93</v>
+      </c>
+      <c r="V19">
+        <v>-2.98</v>
+      </c>
+      <c r="W19">
+        <v>-2.64</v>
+      </c>
+      <c r="X19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="3:25">
       <c r="C20">
         <v>16</v>
       </c>
@@ -5530,8 +7420,41 @@
       <c r="M20">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="21" spans="3:13">
+      <c r="O20">
+        <v>16</v>
+      </c>
+      <c r="P20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20">
+        <v>-3.15</v>
+      </c>
+      <c r="S20">
+        <v>-3.19</v>
+      </c>
+      <c r="T20">
+        <v>-3.01</v>
+      </c>
+      <c r="U20">
+        <v>-2.66</v>
+      </c>
+      <c r="V20">
+        <v>-2.77</v>
+      </c>
+      <c r="W20">
+        <v>-2.66</v>
+      </c>
+      <c r="X20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25">
       <c r="C21">
         <v>17</v>
       </c>
@@ -5565,8 +7488,41 @@
       <c r="M21">
         <v>2.56</v>
       </c>
-    </row>
-    <row r="22" spans="3:13">
+      <c r="O21">
+        <v>17</v>
+      </c>
+      <c r="P21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21">
+        <v>-3.14</v>
+      </c>
+      <c r="S21">
+        <v>-3.33</v>
+      </c>
+      <c r="T21">
+        <v>-3.15</v>
+      </c>
+      <c r="U21">
+        <v>-2.98</v>
+      </c>
+      <c r="V21">
+        <v>-2.93</v>
+      </c>
+      <c r="W21">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="X21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25">
       <c r="C22">
         <v>18</v>
       </c>
@@ -5600,8 +7556,41 @@
       <c r="M22">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="23" spans="3:13">
+      <c r="O22">
+        <v>18</v>
+      </c>
+      <c r="P22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22">
+        <v>-3.19</v>
+      </c>
+      <c r="S22">
+        <v>-3.14</v>
+      </c>
+      <c r="T22">
+        <v>-3.01</v>
+      </c>
+      <c r="U22">
+        <v>-2.88</v>
+      </c>
+      <c r="V22">
+        <v>-2.85</v>
+      </c>
+      <c r="W22">
+        <v>-2.57</v>
+      </c>
+      <c r="X22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25">
       <c r="C23">
         <v>19</v>
       </c>
@@ -5635,8 +7624,41 @@
       <c r="M23">
         <v>2.61</v>
       </c>
-    </row>
-    <row r="24" spans="3:13">
+      <c r="O23">
+        <v>19</v>
+      </c>
+      <c r="P23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23">
+        <v>-3.08</v>
+      </c>
+      <c r="T23">
+        <v>-3.15</v>
+      </c>
+      <c r="U23">
+        <v>-2.86</v>
+      </c>
+      <c r="V23">
+        <v>-3</v>
+      </c>
+      <c r="W23">
+        <v>-2.73</v>
+      </c>
+      <c r="X23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25">
       <c r="C24">
         <v>20</v>
       </c>
@@ -5670,10 +7692,43 @@
       <c r="M24">
         <v>2.0099999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="5" t="s">
-        <v>23</v>
+      <c r="O24">
+        <v>20</v>
+      </c>
+      <c r="P24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24">
+        <v>-2.61</v>
+      </c>
+      <c r="S24">
+        <v>-3.07</v>
+      </c>
+      <c r="T24">
+        <v>-3.13</v>
+      </c>
+      <c r="U24">
+        <v>-2.81</v>
+      </c>
+      <c r="V24">
+        <v>-2.9</v>
+      </c>
+      <c r="W24">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="X24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25">
+      <c r="C25" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D25" s="5">
         <f>SUBTOTAL(101,D5:D24)</f>
@@ -5715,66 +7770,271 @@
         <f t="shared" si="0"/>
         <v>2.4575</v>
       </c>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="C26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="O25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25">
+        <f>AVERAGE(R5:R22,R24)</f>
+        <v>-2.9121052631578945</v>
+      </c>
+      <c r="S25">
+        <f>AVERAGE(S5:S24)</f>
+        <v>-3.1324999999999994</v>
+      </c>
+      <c r="T25">
+        <f t="shared" ref="T25:W25" si="1">AVERAGE(T5:T24)</f>
+        <v>-3.1979999999999995</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="1"/>
+        <v>-2.8905000000000003</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>-2.9464999999999999</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="1"/>
+        <v>-2.7439999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25">
+      <c r="C26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="15">
         <f>STDEV(D5:D24)</f>
         <v>0.13204464954584041</v>
       </c>
-      <c r="E26" s="5">
-        <f t="shared" ref="E26:M26" si="1">STDEV(E5:E24)</f>
+      <c r="E26" s="15">
+        <f t="shared" ref="E26:M26" si="2">STDEV(E5:E24)</f>
         <v>0.16745462857615814</v>
       </c>
-      <c r="F26" s="5">
-        <f t="shared" si="1"/>
+      <c r="F26" s="15">
+        <f t="shared" si="2"/>
         <v>0.38590972492212949</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="1"/>
+      <c r="G26" s="15">
+        <f t="shared" si="2"/>
         <v>5.8962521548593973E-2</v>
       </c>
-      <c r="H26" s="5">
-        <f t="shared" si="1"/>
+      <c r="H26" s="15">
+        <f t="shared" si="2"/>
         <v>0.11439083511319736</v>
       </c>
-      <c r="I26" s="5">
-        <f t="shared" si="1"/>
+      <c r="I26" s="15">
+        <f t="shared" si="2"/>
         <v>0.12021362563983205</v>
       </c>
-      <c r="J26" s="5">
-        <f t="shared" si="1"/>
+      <c r="J26" s="15">
+        <f t="shared" si="2"/>
         <v>7.5365774725667092E-2</v>
       </c>
-      <c r="K26" s="5">
-        <f t="shared" si="1"/>
+      <c r="K26" s="15">
+        <f t="shared" si="2"/>
         <v>0.18218772851389492</v>
       </c>
-      <c r="L26" s="5">
-        <f t="shared" si="1"/>
+      <c r="L26" s="15">
+        <f t="shared" si="2"/>
         <v>0.20904544960366864</v>
       </c>
-      <c r="M26" s="5">
-        <f t="shared" si="1"/>
+      <c r="M26" s="15">
+        <f t="shared" si="2"/>
         <v>0.26989032860346035</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26">
+        <f>STDEV(R5:R22,R24)</f>
+        <v>0.24838542959969515</v>
+      </c>
+      <c r="S26">
+        <f>STDEV(S5:S24)</f>
+        <v>7.3188653132661846E-2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" ref="T26:W26" si="3">STDEV(T5:T24)</f>
+        <v>0.26104244462297505</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="3"/>
+        <v>0.18463263667703966</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="3"/>
+        <v>0.17974470199351328</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="3"/>
+        <v>0.20525721988712264</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25">
+      <c r="C27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="5">
+        <f>D26*$A$1</f>
+        <v>6.17095098019739E-2</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" ref="E27:M27" si="4">E26*$A$1</f>
+        <v>7.825794592244309E-2</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="4"/>
+        <v>0.18035035902376237</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="4"/>
+        <v>2.7555439118257526E-2</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="4"/>
+        <v>5.3459207813060537E-2</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="4"/>
+        <v>5.6180420299246601E-2</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="4"/>
+        <v>3.5221306051877177E-2</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="4"/>
+        <v>8.5143286435279256E-2</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="4"/>
+        <v>9.7694925661469187E-2</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="4"/>
+        <v>0.12613006233646248</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25">
+      <c r="C28" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25">
+      <c r="C29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2.59</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="G29" s="5">
+        <v>-0.114</v>
+      </c>
+      <c r="H29" s="5">
+        <v>-0.42</v>
+      </c>
+      <c r="I29" s="5">
+        <v>-0.44</v>
+      </c>
+      <c r="J29" s="5">
+        <v>-0.23</v>
+      </c>
+      <c r="K29" s="5">
+        <v>-0.42</v>
+      </c>
+      <c r="L29" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="M29" s="5">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25">
+      <c r="C30" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G30" s="5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="J30" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.182</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5787,12 +8047,12 @@
     </row>
     <row r="2" spans="1:13" ht="21">
       <c r="G2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -6526,8 +8786,8 @@
       </c>
     </row>
     <row r="25" spans="3:13">
-      <c r="C25" s="5" t="s">
-        <v>26</v>
+      <c r="C25" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D25" s="5">
         <f>SUBTOTAL(101,D5:D24)</f>
@@ -6571,8 +8831,8 @@
       </c>
     </row>
     <row r="26" spans="3:13">
-      <c r="C26" s="5" t="s">
-        <v>24</v>
+      <c r="C26" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="D26" s="5">
         <f>STDEV(D5:D24)</f>
@@ -6616,8 +8876,8 @@
       </c>
     </row>
     <row r="27" spans="3:13">
-      <c r="C27" s="5" t="s">
-        <v>32</v>
+      <c r="C27" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D27" s="5">
         <f>D26*$A$1</f>
@@ -6661,8 +8921,8 @@
       </c>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="5" t="s">
-        <v>33</v>
+      <c r="C28" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D28" s="5">
         <v>0.25</v>
@@ -6696,8 +8956,8 @@
       </c>
     </row>
     <row r="29" spans="3:13">
-      <c r="C29" s="5" t="s">
-        <v>34</v>
+      <c r="C29" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D29" s="5">
         <v>3.44</v>
@@ -6728,6 +8988,41 @@
       </c>
       <c r="M29" s="5">
         <v>3.65</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="E30" s="9">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F30" s="5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G30" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.121</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0.34599999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6740,22 +9035,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:M12"/>
+  <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="3:13">
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="3:13">
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -6790,7 +9085,7 @@
     </row>
     <row r="4" spans="3:13">
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>1.669</v>
@@ -6825,7 +9120,7 @@
     </row>
     <row r="5" spans="3:13">
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>2.5860000000000003</v>
@@ -6860,7 +9155,7 @@
     </row>
     <row r="6" spans="3:13">
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>3.4350000000000009</v>
@@ -6895,12 +9190,12 @@
     </row>
     <row r="9" spans="3:13">
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="3:13">
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>0.29581110615782386</v>
@@ -6935,7 +9230,7 @@
     </row>
     <row r="11" spans="3:13">
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>0.13204464954584041</v>
@@ -6970,7 +9265,7 @@
     </row>
     <row r="12" spans="3:13">
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>0.52313327274474331</v>
@@ -7001,6 +9296,335 @@
       </c>
       <c r="M12">
         <v>0.34604950969174708</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15.75" thickTop="1">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>0.42</v>
+      </c>
+      <c r="E18">
+        <v>0.51</v>
+      </c>
+      <c r="F18">
+        <v>-0.05</v>
+      </c>
+      <c r="G18">
+        <v>-0.08</v>
+      </c>
+      <c r="H18">
+        <v>-0.25700000000000001</v>
+      </c>
+      <c r="I18">
+        <v>-0.29299999999999998</v>
+      </c>
+      <c r="J18">
+        <v>-0.23300000000000001</v>
+      </c>
+      <c r="K18">
+        <v>-0.97</v>
+      </c>
+      <c r="L18">
+        <v>-0.03</v>
+      </c>
+      <c r="M18">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>1.67</v>
+      </c>
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+      <c r="F19">
+        <v>0.13</v>
+      </c>
+      <c r="G19">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="H19">
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="I19">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="J19">
+        <v>-0.26900000000000002</v>
+      </c>
+      <c r="K19">
+        <v>-0.66</v>
+      </c>
+      <c r="L19">
+        <v>0.22</v>
+      </c>
+      <c r="M19">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>2.59</v>
+      </c>
+      <c r="E20">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.26</v>
+      </c>
+      <c r="G20">
+        <v>-0.114</v>
+      </c>
+      <c r="H20">
+        <v>-0.42</v>
+      </c>
+      <c r="I20">
+        <v>-0.44</v>
+      </c>
+      <c r="J20">
+        <v>-0.23</v>
+      </c>
+      <c r="K20">
+        <v>-0.42</v>
+      </c>
+      <c r="L20">
+        <v>0.7</v>
+      </c>
+      <c r="M20">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>3.44</v>
+      </c>
+      <c r="E21">
+        <v>1.34</v>
+      </c>
+      <c r="F21">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G21">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="H21">
+        <v>-0.3</v>
+      </c>
+      <c r="I21">
+        <v>-0.26</v>
+      </c>
+      <c r="J21">
+        <v>-0.01</v>
+      </c>
+      <c r="K21">
+        <v>-0.2</v>
+      </c>
+      <c r="L21">
+        <v>1.21</v>
+      </c>
+      <c r="M21">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>0.13</v>
+      </c>
+      <c r="E22">
+        <v>0.13</v>
+      </c>
+      <c r="F22">
+        <v>0.08</v>
+      </c>
+      <c r="G22">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I22">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J22">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K22">
+        <v>0.09</v>
+      </c>
+      <c r="L22">
+        <v>0.15</v>
+      </c>
+      <c r="M22">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.4</v>
+      </c>
+      <c r="F23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H23">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I23">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K23">
+        <v>0.06</v>
+      </c>
+      <c r="L23">
+        <v>0.11</v>
+      </c>
+      <c r="M23">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.08</v>
+      </c>
+      <c r="F24">
+        <v>0.19</v>
+      </c>
+      <c r="G24">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.06</v>
+      </c>
+      <c r="I24">
+        <v>0.06</v>
+      </c>
+      <c r="J24">
+        <v>0.04</v>
+      </c>
+      <c r="K24">
+        <v>0.09</v>
+      </c>
+      <c r="L24">
+        <v>0.1</v>
+      </c>
+      <c r="M24">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>0.25</v>
+      </c>
+      <c r="E25">
+        <v>0.05</v>
+      </c>
+      <c r="F25">
+        <v>0.03</v>
+      </c>
+      <c r="G25">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H25">
+        <v>0.06</v>
+      </c>
+      <c r="I25">
+        <v>0.09</v>
+      </c>
+      <c r="J25">
+        <v>0.13</v>
+      </c>
+      <c r="K25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L25">
+        <v>0.12</v>
+      </c>
+      <c r="M25">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>

--- a/vdkdPOLIER.xlsx
+++ b/vdkdPOLIER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="23580" windowHeight="9855" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="23580" windowHeight="9855" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="F13polier" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="F17polier" sheetId="3" r:id="rId3"/>
     <sheet name="F18polier" sheetId="4" r:id="rId4"/>
     <sheet name="Vergleiche" sheetId="5" r:id="rId5"/>
+    <sheet name="VorprozessVerzug" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="64">
   <si>
     <t>MP1</t>
   </si>
@@ -199,6 +200,39 @@
   <si>
     <t>F17 Spalt Polier</t>
   </si>
+  <si>
+    <t>ProzezzDiff</t>
+  </si>
+  <si>
+    <t>Mater.</t>
+  </si>
+  <si>
+    <t>fräs</t>
+  </si>
+  <si>
+    <t>verz</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>MittVerz</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>polier</t>
+  </si>
+  <si>
+    <t>auss</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>aus</t>
+  </si>
 </sst>
 </file>
 
@@ -207,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +306,14 @@
       <color theme="1"/>
       <name val="MS Reference Sans Serif"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -352,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -372,6 +414,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -607,11 +651,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="48901120"/>
-        <c:axId val="56706176"/>
+        <c:axId val="55399168"/>
+        <c:axId val="55401088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48901120"/>
+        <c:axId val="55399168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,14 +678,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56706176"/>
+        <c:crossAx val="55401088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56706176"/>
+        <c:axId val="55401088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,7 +713,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48901120"/>
+        <c:crossAx val="55399168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -684,9 +728,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38495052851224743"/>
+          <c:x val="0.38495052851224765"/>
           <c:y val="5.0295733169492415E-2"/>
-          <c:w val="0.15743140662569557"/>
+          <c:w val="0.15743140662569569"/>
           <c:h val="7.0574198062907725E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -705,7 +749,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -723,9 +767,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.342037516875885E-2"/>
-          <c:y val="0.11163819510276196"/>
+          <c:y val="0.11163819510276191"/>
           <c:w val="0.7810961569100987"/>
-          <c:h val="0.82578188782913231"/>
+          <c:h val="0.82578188782913253"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -928,11 +972,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57443456"/>
-        <c:axId val="57515008"/>
+        <c:axId val="55421952"/>
+        <c:axId val="55440512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57443456"/>
+        <c:axId val="55421952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,14 +999,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57515008"/>
+        <c:crossAx val="55440512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57515008"/>
+        <c:axId val="55440512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1000,7 +1044,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57443456"/>
+        <c:crossAx val="55421952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1022,7 +1066,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1038,10 +1082,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12084285156155403"/>
-          <c:y val="1.562658530210357E-2"/>
-          <c:w val="0.77393620632527849"/>
-          <c:h val="0.96874682939579293"/>
+          <c:x val="0.12084285156155405"/>
+          <c:y val="1.5626585302103577E-2"/>
+          <c:w val="0.77393620632527882"/>
+          <c:h val="0.96874682939579315"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1879,11 +1923,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60165120"/>
-        <c:axId val="62215680"/>
+        <c:axId val="64520960"/>
+        <c:axId val="64522880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60165120"/>
+        <c:axId val="64520960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,8 +1956,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.40789661617704553"/>
-              <c:y val="0.96088541666666683"/>
+              <c:x val="0.40789661617704576"/>
+              <c:y val="0.96088541666666705"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1930,14 +1974,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62215680"/>
+        <c:crossAx val="64522880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62215680"/>
+        <c:axId val="64522880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.8"/>
@@ -1964,7 +2008,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1980,7 +2023,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60165120"/>
+        <c:crossAx val="64520960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2008,10 +2051,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35581786448087382"/>
-          <c:y val="5.8494623655913992E-2"/>
+          <c:x val="0.35581786448087394"/>
+          <c:y val="5.849462365591402E-2"/>
           <c:w val="0.32120604369530398"/>
-          <c:h val="3.966838206359577E-2"/>
+          <c:h val="3.9668382063595783E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2031,7 +2074,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2584,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4476,8 +4519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6276,8 +6319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8033,8 +8076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9037,7 +9080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
@@ -9634,4 +9677,709 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C5:O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="4:15">
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15">
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>0.13</v>
+      </c>
+      <c r="G6">
+        <v>0.38</v>
+      </c>
+      <c r="H6">
+        <v>-0.12</v>
+      </c>
+      <c r="I6">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="J6">
+        <v>-0.23100000000000001</v>
+      </c>
+      <c r="K6">
+        <v>-0.27400000000000002</v>
+      </c>
+      <c r="L6">
+        <v>-0.23200000000000001</v>
+      </c>
+      <c r="M6">
+        <v>-1.06</v>
+      </c>
+      <c r="N6">
+        <v>-0.38</v>
+      </c>
+      <c r="O6">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15">
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>0.42</v>
+      </c>
+      <c r="G7">
+        <v>0.51</v>
+      </c>
+      <c r="H7">
+        <v>-0.05</v>
+      </c>
+      <c r="I7">
+        <v>-0.08</v>
+      </c>
+      <c r="J7">
+        <v>-0.25700000000000001</v>
+      </c>
+      <c r="K7">
+        <v>-0.29299999999999998</v>
+      </c>
+      <c r="L7">
+        <v>-0.23300000000000001</v>
+      </c>
+      <c r="M7">
+        <v>-0.97</v>
+      </c>
+      <c r="N7">
+        <v>-0.03</v>
+      </c>
+      <c r="O7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15">
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8">
+        <f>0.42-0.13</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G8">
+        <f>0.51-0.38</f>
+        <v>0.13</v>
+      </c>
+      <c r="H8">
+        <f>0.12-0.05</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="I8">
+        <f>0.08-0.074</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="J8">
+        <f>0.257-0.231</f>
+        <v>2.5999999999999995E-2</v>
+      </c>
+      <c r="K8">
+        <f>0.293-0.274</f>
+        <v>1.8999999999999961E-2</v>
+      </c>
+      <c r="L8">
+        <f>0.233-0.232</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="M8">
+        <f>1.06-0.97</f>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="N8">
+        <f>0.38-0.03</f>
+        <v>0.35</v>
+      </c>
+      <c r="O8">
+        <f>0.43+0.18</f>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15">
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15">
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="19">
+        <f>AVERAGE(F8:O8)</f>
+        <v>0.15920000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15">
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>1.27</v>
+      </c>
+      <c r="G11">
+        <v>0.62</v>
+      </c>
+      <c r="H11">
+        <v>0.03</v>
+      </c>
+      <c r="I11">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="J11">
+        <v>-0.34</v>
+      </c>
+      <c r="K11">
+        <v>-0.39600000000000002</v>
+      </c>
+      <c r="L11">
+        <v>-0.251</v>
+      </c>
+      <c r="M11">
+        <v>-0.84</v>
+      </c>
+      <c r="N11">
+        <v>-0.01</v>
+      </c>
+      <c r="O11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15">
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <v>1.67</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>0.13</v>
+      </c>
+      <c r="I12">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="J12">
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="K12">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="L12">
+        <v>-0.26900000000000002</v>
+      </c>
+      <c r="M12">
+        <v>-0.66</v>
+      </c>
+      <c r="N12">
+        <v>0.22</v>
+      </c>
+      <c r="O12">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15">
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <f>1.67-1.27</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="G13">
+        <f>0.62-0.1</f>
+        <v>0.52</v>
+      </c>
+      <c r="H13">
+        <f>0.13-0.03</f>
+        <v>0.1</v>
+      </c>
+      <c r="I13">
+        <f>0.101-0.097</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="J13">
+        <f>0.385-0.34</f>
+        <v>4.4999999999999984E-2</v>
+      </c>
+      <c r="K13">
+        <f>0.452-0.396</f>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="L13">
+        <f>0.269-0.251</f>
+        <v>1.8000000000000016E-2</v>
+      </c>
+      <c r="M13">
+        <f>0.84-0.66</f>
+        <v>0.17999999999999994</v>
+      </c>
+      <c r="N13">
+        <f>0.22+0.01</f>
+        <v>0.23</v>
+      </c>
+      <c r="O13">
+        <f>1.29-0.7</f>
+        <v>0.59000000000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15">
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15">
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="19">
+        <f>AVERAGE(F13:O13)</f>
+        <v>0.21429999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15">
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>2.54</v>
+      </c>
+      <c r="G16">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.31</v>
+      </c>
+      <c r="I16">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="J16">
+        <v>-0.439</v>
+      </c>
+      <c r="K16">
+        <v>-0.48099999999999998</v>
+      </c>
+      <c r="L16">
+        <v>-0.23400000000000001</v>
+      </c>
+      <c r="M16">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="N16">
+        <v>0.46</v>
+      </c>
+      <c r="O16">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15">
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>2.59</v>
+      </c>
+      <c r="G17">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.26</v>
+      </c>
+      <c r="I17">
+        <v>-0.114</v>
+      </c>
+      <c r="J17">
+        <v>-0.42</v>
+      </c>
+      <c r="K17">
+        <v>-0.44</v>
+      </c>
+      <c r="L17">
+        <v>-0.23</v>
+      </c>
+      <c r="M17">
+        <v>-0.42</v>
+      </c>
+      <c r="N17">
+        <v>0.7</v>
+      </c>
+      <c r="O17">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15">
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18">
+        <f>2.59-2.54</f>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="G18">
+        <f>1.16-1.11</f>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="H18">
+        <f>0.31-0.26</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="I18">
+        <f>0.116-0.114</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="J18">
+        <f>0.439-0.42</f>
+        <v>1.9000000000000017E-2</v>
+      </c>
+      <c r="K18">
+        <f>0.481-0.44</f>
+        <v>4.0999999999999981E-2</v>
+      </c>
+      <c r="L18">
+        <f>0.234-0.23</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="M18">
+        <f>0.56-0.42</f>
+        <v>0.14000000000000007</v>
+      </c>
+      <c r="N18">
+        <f>0.7-0.46</f>
+        <v>0.23999999999999994</v>
+      </c>
+      <c r="O18">
+        <f>2.46-1.98</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15">
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15">
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="19">
+        <f>AVERAGE(F18:O18)</f>
+        <v>0.10759999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="20">
+        <v>4.33</v>
+      </c>
+      <c r="G21">
+        <v>1.49</v>
+      </c>
+      <c r="H21">
+        <v>0.45</v>
+      </c>
+      <c r="I21">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="J21">
+        <v>-0.37</v>
+      </c>
+      <c r="K21">
+        <v>-0.35</v>
+      </c>
+      <c r="L21">
+        <v>-0.151</v>
+      </c>
+      <c r="M21">
+        <v>-0.31</v>
+      </c>
+      <c r="N21">
+        <v>1.08</v>
+      </c>
+      <c r="O21">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15">
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>3.44</v>
+      </c>
+      <c r="G22">
+        <v>1.34</v>
+      </c>
+      <c r="H22">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="I22">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="J22">
+        <v>-0.3</v>
+      </c>
+      <c r="K22">
+        <v>-0.26</v>
+      </c>
+      <c r="L22">
+        <v>-0.01</v>
+      </c>
+      <c r="M22">
+        <v>-0.2</v>
+      </c>
+      <c r="N22">
+        <v>1.21</v>
+      </c>
+      <c r="O22">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15">
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23">
+        <f>4.33-3.44</f>
+        <v>0.89000000000000012</v>
+      </c>
+      <c r="G23">
+        <f>1.49-1.34</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="H23">
+        <f>0.45-0.352</f>
+        <v>9.8000000000000032E-2</v>
+      </c>
+      <c r="I23">
+        <f>0.071-0.066</f>
+        <v>4.9999999999999906E-3</v>
+      </c>
+      <c r="J23">
+        <f>0.37-0.3</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K23">
+        <f>0.35-0.26</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="L23">
+        <f>0.151-0.01</f>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="M23">
+        <f>0.31-0.2</f>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="N23">
+        <f>1.21-1.08</f>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="O23">
+        <f>3.76-3.65</f>
+        <v>0.10999999999999988</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15">
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15">
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="19">
+        <f>AVERAGE(F23:O23)</f>
+        <v>0.17939999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/vdkdPOLIER.xlsx
+++ b/vdkdPOLIER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="23580" windowHeight="9855" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="23580" windowHeight="9855" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="F13polier" sheetId="1" r:id="rId1"/>
@@ -651,11 +651,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="55399168"/>
-        <c:axId val="55401088"/>
+        <c:axId val="56597120"/>
+        <c:axId val="56742272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55399168"/>
+        <c:axId val="56597120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,14 +678,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55401088"/>
+        <c:crossAx val="56742272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55401088"/>
+        <c:axId val="56742272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -713,7 +713,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55399168"/>
+        <c:crossAx val="56597120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -728,9 +728,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38495052851224765"/>
+          <c:x val="0.38495052851224776"/>
           <c:y val="5.0295733169492415E-2"/>
-          <c:w val="0.15743140662569569"/>
+          <c:w val="0.15743140662569574"/>
           <c:h val="7.0574198062907725E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -749,7 +749,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -767,9 +767,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.342037516875885E-2"/>
-          <c:y val="0.11163819510276191"/>
+          <c:y val="0.11163819510276189"/>
           <c:w val="0.7810961569100987"/>
-          <c:h val="0.82578188782913253"/>
+          <c:h val="0.82578188782913264"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -972,11 +972,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="55421952"/>
-        <c:axId val="55440512"/>
+        <c:axId val="57345920"/>
+        <c:axId val="57377152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55421952"/>
+        <c:axId val="57345920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,14 +999,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55440512"/>
+        <c:crossAx val="57377152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55440512"/>
+        <c:axId val="57377152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1044,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55421952"/>
+        <c:crossAx val="57345920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1066,7 +1066,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1082,10 +1082,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12084285156155405"/>
-          <c:y val="1.5626585302103577E-2"/>
-          <c:w val="0.77393620632527882"/>
-          <c:h val="0.96874682939579315"/>
+          <c:x val="0.12084285156155407"/>
+          <c:y val="1.562658530210358E-2"/>
+          <c:w val="0.77393620632527893"/>
+          <c:h val="0.96874682939579326"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1923,11 +1923,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64520960"/>
-        <c:axId val="64522880"/>
+        <c:axId val="80201984"/>
+        <c:axId val="80377344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64520960"/>
+        <c:axId val="80201984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,8 +1956,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.40789661617704576"/>
-              <c:y val="0.96088541666666705"/>
+              <c:x val="0.40789661617704587"/>
+              <c:y val="0.96088541666666716"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1974,14 +1974,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64522880"/>
+        <c:crossAx val="80377344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64522880"/>
+        <c:axId val="80377344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.8"/>
@@ -2003,11 +2003,12 @@
                   <a:rPr lang="en-US" sz="1800" i="1">
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>x = (±∆) [mm]</a:t>
+                  <a:t>x = ( ± ∆) [mm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2023,7 +2024,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64520960"/>
+        <c:crossAx val="80201984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2051,10 +2052,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35581786448087394"/>
-          <c:y val="5.849462365591402E-2"/>
+          <c:x val="0.35581786448087405"/>
+          <c:y val="5.8494623655914034E-2"/>
           <c:w val="0.32120604369530398"/>
-          <c:h val="3.9668382063595783E-2"/>
+          <c:h val="3.966838206359579E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2074,7 +2075,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9080,8 +9081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9683,7 +9684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>

--- a/vdkdPOLIER.xlsx
+++ b/vdkdPOLIER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="23580" windowHeight="9855" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="23580" windowHeight="9855" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="F13polier" sheetId="1" r:id="rId1"/>
@@ -651,11 +651,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56597120"/>
-        <c:axId val="56742272"/>
+        <c:axId val="57235328"/>
+        <c:axId val="57282560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56597120"/>
+        <c:axId val="57235328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,14 +678,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56742272"/>
+        <c:crossAx val="57282560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56742272"/>
+        <c:axId val="57282560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -713,7 +713,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56597120"/>
+        <c:crossAx val="57235328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -728,9 +728,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38495052851224776"/>
+          <c:x val="0.38495052851224787"/>
           <c:y val="5.0295733169492415E-2"/>
-          <c:w val="0.15743140662569574"/>
+          <c:w val="0.15743140662569577"/>
           <c:h val="7.0574198062907725E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -767,7 +767,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.342037516875885E-2"/>
-          <c:y val="0.11163819510276189"/>
+          <c:y val="0.11163819510276186"/>
           <c:w val="0.7810961569100987"/>
           <c:h val="0.82578188782913264"/>
         </c:manualLayout>
@@ -972,11 +972,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57345920"/>
-        <c:axId val="57377152"/>
+        <c:axId val="61977728"/>
+        <c:axId val="56811520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57345920"/>
+        <c:axId val="61977728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,14 +999,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57377152"/>
+        <c:crossAx val="56811520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57377152"/>
+        <c:axId val="56811520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1044,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57345920"/>
+        <c:crossAx val="61977728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1082,10 +1082,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12084285156155407"/>
-          <c:y val="1.562658530210358E-2"/>
-          <c:w val="0.77393620632527893"/>
-          <c:h val="0.96874682939579326"/>
+          <c:x val="0.12084285156155408"/>
+          <c:y val="1.5626585302103584E-2"/>
+          <c:w val="0.77393620632527904"/>
+          <c:h val="0.96874682939579349"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1923,11 +1923,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80201984"/>
-        <c:axId val="80377344"/>
+        <c:axId val="61013376"/>
+        <c:axId val="61281792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80201984"/>
+        <c:axId val="61013376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,8 +1956,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.40789661617704587"/>
-              <c:y val="0.96088541666666716"/>
+              <c:x val="0.40789661617704592"/>
+              <c:y val="0.96088541666666738"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1974,14 +1974,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80377344"/>
+        <c:crossAx val="61281792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80377344"/>
+        <c:axId val="61281792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.8"/>
@@ -2008,7 +2008,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2024,7 +2023,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80201984"/>
+        <c:crossAx val="61013376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2052,8 +2051,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35581786448087405"/>
-          <c:y val="5.8494623655914034E-2"/>
+          <c:x val="0.35581786448087416"/>
+          <c:y val="5.8494623655914041E-2"/>
           <c:w val="0.32120604369530398"/>
           <c:h val="3.966838206359579E-2"/>
         </c:manualLayout>
@@ -2075,7 +2074,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9081,7 +9080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
@@ -9684,8 +9683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/vdkdPOLIER.xlsx
+++ b/vdkdPOLIER.xlsx
@@ -651,11 +651,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57235328"/>
-        <c:axId val="57282560"/>
+        <c:axId val="58339712"/>
+        <c:axId val="58342784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57235328"/>
+        <c:axId val="58339712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,14 +678,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57282560"/>
+        <c:crossAx val="58342784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57282560"/>
+        <c:axId val="58342784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -713,7 +713,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57235328"/>
+        <c:crossAx val="58339712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -728,9 +728,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38495052851224787"/>
+          <c:x val="0.38495052851224792"/>
           <c:y val="5.0295733169492415E-2"/>
-          <c:w val="0.15743140662569577"/>
+          <c:w val="0.15743140662569582"/>
           <c:h val="7.0574198062907725E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -767,7 +767,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.342037516875885E-2"/>
-          <c:y val="0.11163819510276186"/>
+          <c:y val="0.11163819510276184"/>
           <c:w val="0.7810961569100987"/>
           <c:h val="0.82578188782913264"/>
         </c:manualLayout>
@@ -972,11 +972,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61977728"/>
-        <c:axId val="56811520"/>
+        <c:axId val="73124480"/>
+        <c:axId val="109310720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61977728"/>
+        <c:axId val="73124480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,14 +999,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56811520"/>
+        <c:crossAx val="109310720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56811520"/>
+        <c:axId val="109310720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1044,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61977728"/>
+        <c:crossAx val="73124480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1082,10 +1082,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12084285156155408"/>
-          <c:y val="1.5626585302103584E-2"/>
-          <c:w val="0.77393620632527904"/>
-          <c:h val="0.96874682939579349"/>
+          <c:x val="0.1208428515615541"/>
+          <c:y val="1.5626585302103587E-2"/>
+          <c:w val="0.77393620632527915"/>
+          <c:h val="0.96874682939579371"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1923,11 +1923,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61013376"/>
-        <c:axId val="61281792"/>
+        <c:axId val="110879872"/>
+        <c:axId val="110881792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61013376"/>
+        <c:axId val="110879872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,8 +1956,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.40789661617704592"/>
-              <c:y val="0.96088541666666738"/>
+              <c:x val="0.40789661617704598"/>
+              <c:y val="0.9608854166666676"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1974,14 +1974,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61281792"/>
+        <c:crossAx val="110881792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61281792"/>
+        <c:axId val="110881792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.8"/>
@@ -2023,7 +2023,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61013376"/>
+        <c:crossAx val="110879872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2051,8 +2051,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35581786448087416"/>
-          <c:y val="5.8494623655914041E-2"/>
+          <c:x val="0.35581786448087427"/>
+          <c:y val="5.8494623655914055E-2"/>
           <c:w val="0.32120604369530398"/>
           <c:h val="3.966838206359579E-2"/>
         </c:manualLayout>
@@ -2074,7 +2074,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>

--- a/vdkdPOLIER.xlsx
+++ b/vdkdPOLIER.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="64">
   <si>
     <t>MP1</t>
   </si>
@@ -651,11 +651,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58339712"/>
-        <c:axId val="58342784"/>
+        <c:axId val="58807040"/>
+        <c:axId val="58808960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58339712"/>
+        <c:axId val="58807040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,16 +676,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58342784"/>
+        <c:crossAx val="58808960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58342784"/>
+        <c:axId val="58808960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,10 +711,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58339712"/>
+        <c:crossAx val="58807040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -728,9 +730,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38495052851224792"/>
+          <c:x val="0.38495052851224815"/>
           <c:y val="5.0295733169492415E-2"/>
-          <c:w val="0.15743140662569582"/>
+          <c:w val="0.15743140662569596"/>
           <c:h val="7.0574198062907725E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -767,7 +769,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.342037516875885E-2"/>
-          <c:y val="0.11163819510276184"/>
+          <c:y val="0.11163819510276175"/>
           <c:w val="0.7810961569100987"/>
           <c:h val="0.82578188782913264"/>
         </c:manualLayout>
@@ -972,11 +974,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73124480"/>
-        <c:axId val="109310720"/>
+        <c:axId val="58833920"/>
+        <c:axId val="60359808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73124480"/>
+        <c:axId val="58833920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,14 +1001,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109310720"/>
+        <c:crossAx val="60359808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109310720"/>
+        <c:axId val="60359808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1046,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73124480"/>
+        <c:crossAx val="58833920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1077,17 +1079,7 @@
   <c:lang val="de-DE"/>
   <c:chart>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1208428515615541"/>
-          <c:y val="1.5626585302103587E-2"/>
-          <c:w val="0.77393620632527915"/>
-          <c:h val="0.96874682939579371"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -1096,6 +1088,911 @@
           <c:tx>
             <c:strRef>
               <c:f>Vergleiche!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Vergleiche!$D$22:$M$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.25713963030556813</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.27694717337807429</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.16566532527961303</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8654015976455085E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5603248149198878E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.9586680375575306E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.4958622157600774E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.15786319860462614</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.29989252460804933</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.27472282682541571</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Vergleiche!$D$22:$M$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.25713963030556813</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.27694717337807429</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.16566532527961303</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8654015976455085E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5603248149198878E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.9586680375575306E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.4958622157600774E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.15786319860462614</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.29989252460804933</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.27472282682541571</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergleiche!$D$17:$M$17</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergleiche!$D$18:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50550000000000017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.3500000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.0000000000000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.25650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.29249999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.97050000000000014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.2500000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18100000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergleiche!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Vergleiche!$D$23:$M$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.29581110615782386</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.81745609893388793</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.14034825107192242</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.6577243428696157E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.5675280350486314E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.9161388357766546E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.8151360602074622E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.12282957812822561</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.22070222854382435</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.23127563869251783</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Vergleiche!$D$23:$M$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.29581110615782386</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.81745609893388793</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.14034825107192242</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.6577243428696157E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.5675280350486314E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.9161388357766546E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.8151360602074622E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.12282957812822561</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.22070222854382435</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.23127563869251783</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergleiche!$D$17:$M$17</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergleiche!$D$19:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.7000000000000031E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.38450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.45200000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.26849999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.66350000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27400000000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergleiche!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Vergleiche!$D$24:$M$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.13204464954584041</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16745462857615814</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.38590972492212949</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.8962521548593973E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.11439083511319736</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.12021362563983205</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.5365774725667092E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.18218772851389492</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.20904544960366864</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.26989032860346035</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Vergleiche!$D$24:$M$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.13204464954584041</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16745462857615814</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.38590972492212949</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.8962521548593973E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.11439083511319736</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.12021362563983205</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.5365774725667092E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.18218772851389492</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.20904544960366864</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.26989032860346035</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergleiche!$D$17:$M$17</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergleiche!$D$20:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.11350000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.42300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.4425</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.23200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.42349999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergleiche!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Vergleiche!$D$25:$M$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.52313327274474331</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.8380303976592157E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.335156708899678E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.5165024489802646E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.12095562474682479</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.17218334781028594</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.26439404404470951</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14741545302129519</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.23855044705360326</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.34604950969174708</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Vergleiche!$D$25:$M$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.52313327274474331</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.8380303976592157E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.335156708899678E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.5165024489802646E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.12095562474682479</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.17218334781028594</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.26439404404470951</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14741545302129519</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.23855044705360326</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.34604950969174708</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergleiche!$D$17:$M$17</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergleiche!$D$21:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.4350000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3444999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35149999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.5500000000000017E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.29750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.2555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.0000000000000028E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.19449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6464999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="73705728"/>
+        <c:axId val="73744768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="73705728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43638908772767038"/>
+              <c:y val="0.82524969613697619"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73744768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73744768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>x = ( ± s) [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73705728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35840104986876642"/>
+          <c:y val="0.16244335229908338"/>
+          <c:w val="0.32604339457567805"/>
+          <c:h val="0.21575437298525604"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200" b="1" i="1">
+          <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VorprozessVerzug!$E$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1118,111 +2015,9 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Vergleiche!$D$22:$M$22</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.08</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.4E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.9E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.7000000000000001E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.09</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Vergleiche!$D$22:$M$22</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.08</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.4E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.2E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.9E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.7000000000000001E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.09</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="44450">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Vergleiche!$D$17:$M$17</c:f>
+              <c:f>VorprozessVerzug!$F$28:$O$28</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1260,39 +2055,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Vergleiche!$D$18:$M$18</c:f>
+              <c:f>VorprozessVerzug!$F$29:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.42</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.05</c:v>
+                  <c:v>6.9999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.08</c:v>
+                  <c:v>-6.0000000000000097E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.25700000000000001</c:v>
+                  <c:v>-2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.29299999999999998</c:v>
+                  <c:v>-1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.23300000000000001</c:v>
+                  <c:v>-1E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.97</c:v>
+                  <c:v>9.000000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.03</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,7 +2098,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vergleiche!$C$19</c:f>
+              <c:f>VorprozessVerzug!$E$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1326,111 +2121,9 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Vergleiche!$D$23:$M$23</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.14000000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.4</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.7999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2.7E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2.3E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.7999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Vergleiche!$D$23:$M$23</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.14000000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.4</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.7999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2.7E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2.3E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.7999999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="44450">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Vergleiche!$D$17:$M$17</c:f>
+              <c:f>VorprozessVerzug!$F$28:$O$28</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1468,39 +2161,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Vergleiche!$D$19:$M$19</c:f>
+              <c:f>VorprozessVerzug!$F$30:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.67</c:v>
+                  <c:v>0.39999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.7000000000000003E-2</c:v>
+                  <c:v>4.0000000000000036E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.38500000000000001</c:v>
+                  <c:v>-4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.45200000000000001</c:v>
+                  <c:v>-5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.26900000000000002</c:v>
+                  <c:v>-1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.66</c:v>
+                  <c:v>0.17999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.29</c:v>
+                  <c:v>0.59000000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1511,7 +2204,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vergleiche!$C$20</c:f>
+              <c:f>VorprozessVerzug!$E$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1534,111 +2227,9 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Vergleiche!$D$24:$M$24</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.08</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.19</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.8000000000000001E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.04</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.09</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.1</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Vergleiche!$D$24:$M$24</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.08</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.19</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.8000000000000001E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.04</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.09</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.1</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="44450">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Vergleiche!$D$17:$M$17</c:f>
+              <c:f>VorprozessVerzug!$F$28:$O$28</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1676,39 +2267,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Vergleiche!$D$20:$M$20</c:f>
+              <c:f>VorprozessVerzug!$F$31:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.59</c:v>
+                  <c:v>4.9999999999999822E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1599999999999999</c:v>
+                  <c:v>4.9999999999999822E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26</c:v>
+                  <c:v>-0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.114</c:v>
+                  <c:v>2.0000000000000018E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.42</c:v>
+                  <c:v>1.9000000000000017E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.44</c:v>
+                  <c:v>4.0999999999999981E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.23</c:v>
+                  <c:v>4.0000000000000036E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.42</c:v>
+                  <c:v>0.14000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7</c:v>
+                  <c:v>0.23999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.46</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1719,7 +2310,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vergleiche!$C$21</c:f>
+              <c:f>VorprozessVerzug!$E$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1742,111 +2333,9 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="1"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Vergleiche!$D$25:$M$25</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.25</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.05</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.03</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.7000000000000001E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.09</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.12</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.17</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Vergleiche!$D$25:$M$25</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.25</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.05</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.03</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.7000000000000001E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.06</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.09</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.13</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7.0000000000000007E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.12</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.17</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="44450">
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Vergleiche!$D$17:$M$17</c:f>
+              <c:f>VorprozessVerzug!$F$28:$O$28</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1884,50 +2373,50 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Vergleiche!$D$21:$M$21</c:f>
+              <c:f>VorprozessVerzug!$F$32:$O$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.44</c:v>
+                  <c:v>-0.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.34</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35199999999999998</c:v>
+                  <c:v>9.8000000000000032E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.6000000000000003E-2</c:v>
+                  <c:v>4.9999999999999906E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.3</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.26</c:v>
+                  <c:v>8.9999999999999969E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.01</c:v>
+                  <c:v>0.14099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.2</c:v>
+                  <c:v>0.10999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.21</c:v>
+                  <c:v>0.12999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.65</c:v>
+                  <c:v>-0.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110879872"/>
-        <c:axId val="110881792"/>
+        <c:axId val="62629376"/>
+        <c:axId val="62640128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110879872"/>
+        <c:axId val="62629376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,12 +2428,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" i="1">
+                  <a:defRPr sz="1400" b="1" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" i="1">
+                  <a:rPr lang="de-DE" sz="1400" b="1" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>Messpunkte</a:t>
@@ -1956,8 +2451,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.40789661617704598"/>
-              <c:y val="0.9608854166666676"/>
+              <c:x val="0.37295856593777188"/>
+              <c:y val="0.84225078316823299"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1974,18 +2469,16 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110881792"/>
+        <c:crossAx val="62640128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110881792"/>
+        <c:axId val="62640128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3.8"/>
-          <c:min val="-1.2"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -1995,19 +2488,27 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" i="1">
+                  <a:defRPr sz="1400" i="1">
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" i="1">
+                  <a:rPr lang="en-US" sz="1400" i="1">
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>x = ( ± ∆) [mm]</a:t>
+                  <a:t>Offsetwerte zu Vorprozess [mm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4447884416924664E-2"/>
+              <c:y val="0.10686015860920611"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2023,38 +2524,21 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110879872"/>
+        <c:crossAx val="62629376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.5"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="7"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35581786448087427"/>
-          <c:y val="5.8494623655914055E-2"/>
-          <c:w val="0.32120604369530398"/>
-          <c:h val="3.966838206359579E-2"/>
+          <c:x val="0.30914442196273462"/>
+          <c:y val="5.2212570202918161E-2"/>
+          <c:w val="0.39157797225811181"/>
+          <c:h val="0.20740259080518164"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2074,7 +2558,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2149,20 +2633,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2627,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:M28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4520,7 +5039,7 @@
   <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:M29"/>
+      <selection activeCell="D26" sqref="D26:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6320,7 +6839,7 @@
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:M29"/>
+      <selection activeCell="D26" sqref="D26:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8076,8 +8595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:M29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9080,8 +9599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9350,9 +9869,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C17" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
         <v>0</v>
       </c>
@@ -9392,34 +9909,34 @@
         <v>38</v>
       </c>
       <c r="D18">
-        <v>0.42</v>
+        <v>0.42449999999999999</v>
       </c>
       <c r="E18">
-        <v>0.51</v>
+        <v>0.50550000000000017</v>
       </c>
       <c r="F18">
-        <v>-0.05</v>
+        <v>-5.3500000000000006E-2</v>
       </c>
       <c r="G18">
-        <v>-0.08</v>
+        <v>-8.0000000000000029E-2</v>
       </c>
       <c r="H18">
-        <v>-0.25700000000000001</v>
+        <v>-0.25650000000000006</v>
       </c>
       <c r="I18">
-        <v>-0.29299999999999998</v>
+        <v>-0.29249999999999993</v>
       </c>
       <c r="J18">
         <v>-0.23300000000000001</v>
       </c>
       <c r="K18">
-        <v>-0.97</v>
+        <v>-0.97050000000000014</v>
       </c>
       <c r="L18">
-        <v>-0.03</v>
+        <v>-3.2500000000000008E-2</v>
       </c>
       <c r="M18">
-        <v>0.18</v>
+        <v>0.18100000000000002</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -9427,34 +9944,34 @@
         <v>27</v>
       </c>
       <c r="D19">
-        <v>1.67</v>
+        <v>1.669</v>
       </c>
       <c r="E19">
-        <v>0.1</v>
+        <v>0.13150000000000001</v>
       </c>
       <c r="F19">
-        <v>0.13</v>
+        <v>0.1285</v>
       </c>
       <c r="G19">
-        <v>-9.7000000000000003E-2</v>
+        <v>-9.7000000000000031E-2</v>
       </c>
       <c r="H19">
-        <v>-0.38500000000000001</v>
+        <v>-0.38450000000000001</v>
       </c>
       <c r="I19">
-        <v>-0.45200000000000001</v>
+        <v>-0.45200000000000007</v>
       </c>
       <c r="J19">
-        <v>-0.26900000000000002</v>
+        <v>-0.26849999999999991</v>
       </c>
       <c r="K19">
-        <v>-0.66</v>
+        <v>-0.66350000000000009</v>
       </c>
       <c r="L19">
-        <v>0.22</v>
+        <v>0.27400000000000008</v>
       </c>
       <c r="M19">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -9462,34 +9979,34 @@
         <v>28</v>
       </c>
       <c r="D20">
-        <v>2.59</v>
+        <v>2.5860000000000003</v>
       </c>
       <c r="E20">
-        <v>1.1599999999999999</v>
+        <v>1.159</v>
       </c>
       <c r="F20">
         <v>0.26</v>
       </c>
       <c r="G20">
-        <v>-0.114</v>
+        <v>-0.11350000000000005</v>
       </c>
       <c r="H20">
-        <v>-0.42</v>
+        <v>-0.42300000000000004</v>
       </c>
       <c r="I20">
-        <v>-0.44</v>
+        <v>-0.4425</v>
       </c>
       <c r="J20">
-        <v>-0.23</v>
+        <v>-0.23200000000000004</v>
       </c>
       <c r="K20">
-        <v>-0.42</v>
+        <v>-0.42349999999999993</v>
       </c>
       <c r="L20">
-        <v>0.7</v>
+        <v>0.69500000000000006</v>
       </c>
       <c r="M20">
-        <v>2.46</v>
+        <v>2.4575</v>
       </c>
     </row>
     <row r="21" spans="2:13">
@@ -9497,34 +10014,34 @@
         <v>29</v>
       </c>
       <c r="D21">
-        <v>3.44</v>
+        <v>3.4350000000000009</v>
       </c>
       <c r="E21">
-        <v>1.34</v>
+        <v>1.3444999999999998</v>
       </c>
       <c r="F21">
-        <v>0.35199999999999998</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="G21">
-        <v>-6.6000000000000003E-2</v>
+        <v>-6.5500000000000017E-2</v>
       </c>
       <c r="H21">
-        <v>-0.3</v>
+        <v>-0.29750000000000004</v>
       </c>
       <c r="I21">
-        <v>-0.26</v>
+        <v>-0.2555</v>
       </c>
       <c r="J21">
-        <v>-0.01</v>
+        <v>-9.0000000000000028E-3</v>
       </c>
       <c r="K21">
-        <v>-0.2</v>
+        <v>-0.19449999999999998</v>
       </c>
       <c r="L21">
-        <v>1.21</v>
+        <v>1.2069999999999999</v>
       </c>
       <c r="M21">
-        <v>3.65</v>
+        <v>3.6464999999999996</v>
       </c>
     </row>
     <row r="22" spans="2:13">
@@ -9535,34 +10052,34 @@
         <v>38</v>
       </c>
       <c r="D22">
-        <v>0.13</v>
+        <v>0.25713963030556813</v>
       </c>
       <c r="E22">
-        <v>0.13</v>
+        <v>0.27694717337807429</v>
       </c>
       <c r="F22">
-        <v>0.08</v>
+        <v>0.16566532527961303</v>
       </c>
       <c r="G22">
-        <v>1.4E-2</v>
+        <v>2.8654015976455085E-2</v>
       </c>
       <c r="H22">
-        <v>1.2E-2</v>
+        <v>2.5603248149198878E-2</v>
       </c>
       <c r="I22">
-        <v>1.9E-2</v>
+        <v>3.9586680375575306E-2</v>
       </c>
       <c r="J22">
-        <v>1.7000000000000001E-2</v>
+        <v>3.4958622157600774E-2</v>
       </c>
       <c r="K22">
-        <v>0.09</v>
+        <v>0.15786319860462614</v>
       </c>
       <c r="L22">
-        <v>0.15</v>
+        <v>0.29989252460804933</v>
       </c>
       <c r="M22">
-        <v>0.13</v>
+        <v>0.27472282682541571</v>
       </c>
     </row>
     <row r="23" spans="2:13">
@@ -9570,34 +10087,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>0.14000000000000001</v>
+        <v>0.29581110615782386</v>
       </c>
       <c r="E23">
-        <v>0.4</v>
+        <v>0.81745609893388793</v>
       </c>
       <c r="F23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14034825107192242</v>
       </c>
       <c r="G23">
-        <v>1.7999999999999999E-2</v>
+        <v>3.6577243428696157E-2</v>
       </c>
       <c r="H23">
-        <v>2.7E-2</v>
+        <v>5.5675280350486314E-2</v>
       </c>
       <c r="I23">
-        <v>2.3E-2</v>
+        <v>4.9161388357766546E-2</v>
       </c>
       <c r="J23">
-        <v>1.7999999999999999E-2</v>
+        <v>3.8151360602074622E-2</v>
       </c>
       <c r="K23">
-        <v>0.06</v>
+        <v>0.12282957812822561</v>
       </c>
       <c r="L23">
-        <v>0.11</v>
+        <v>0.22070222854382435</v>
       </c>
       <c r="M23">
-        <v>0.11</v>
+        <v>0.23127563869251783</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -9605,34 +10122,34 @@
         <v>28</v>
       </c>
       <c r="D24">
-        <v>7.0000000000000007E-2</v>
+        <v>0.13204464954584041</v>
       </c>
       <c r="E24">
-        <v>0.08</v>
+        <v>0.16745462857615814</v>
       </c>
       <c r="F24">
-        <v>0.19</v>
+        <v>0.38590972492212949</v>
       </c>
       <c r="G24">
-        <v>2.8000000000000001E-2</v>
+        <v>5.8962521548593973E-2</v>
       </c>
       <c r="H24">
-        <v>0.06</v>
+        <v>0.11439083511319736</v>
       </c>
       <c r="I24">
-        <v>0.06</v>
+        <v>0.12021362563983205</v>
       </c>
       <c r="J24">
-        <v>0.04</v>
+        <v>7.5365774725667092E-2</v>
       </c>
       <c r="K24">
-        <v>0.09</v>
+        <v>0.18218772851389492</v>
       </c>
       <c r="L24">
-        <v>0.1</v>
+        <v>0.20904544960366864</v>
       </c>
       <c r="M24">
-        <v>0.13</v>
+        <v>0.26989032860346035</v>
       </c>
     </row>
     <row r="25" spans="2:13">
@@ -9640,34 +10157,34 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>0.25</v>
+        <v>0.52313327274474331</v>
       </c>
       <c r="E25">
-        <v>0.05</v>
+        <v>9.8380303976592157E-2</v>
       </c>
       <c r="F25">
-        <v>0.03</v>
+        <v>6.335156708899678E-2</v>
       </c>
       <c r="G25">
-        <v>1.7000000000000001E-2</v>
+        <v>3.5165024489802646E-2</v>
       </c>
       <c r="H25">
-        <v>0.06</v>
+        <v>0.12095562474682479</v>
       </c>
       <c r="I25">
-        <v>0.09</v>
+        <v>0.17218334781028594</v>
       </c>
       <c r="J25">
-        <v>0.13</v>
+        <v>0.26439404404470951</v>
       </c>
       <c r="K25">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14741545302129519</v>
       </c>
       <c r="L25">
-        <v>0.12</v>
+        <v>0.23855044705360326</v>
       </c>
       <c r="M25">
-        <v>0.17</v>
+        <v>0.34604950969174708</v>
       </c>
     </row>
   </sheetData>
@@ -9681,10 +10198,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:O25"/>
+  <dimension ref="C5:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:O25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10378,8 +10895,181 @@
         <v>0.17939999999999995</v>
       </c>
     </row>
+    <row r="28" spans="3:15">
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" t="s">
+        <v>8</v>
+      </c>
+      <c r="O28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15">
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G29">
+        <v>0.13</v>
+      </c>
+      <c r="H29">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="I29">
+        <v>-6.0000000000000097E-3</v>
+      </c>
+      <c r="J29">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="K29">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="L29">
+        <v>-1E-3</v>
+      </c>
+      <c r="M29">
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="N29">
+        <v>0.35</v>
+      </c>
+      <c r="O29">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15">
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="G30">
+        <v>-0.52</v>
+      </c>
+      <c r="H30">
+        <v>0.1</v>
+      </c>
+      <c r="I30">
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="J30">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="K30">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="L30">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="M30">
+        <v>0.17999999999999994</v>
+      </c>
+      <c r="N30">
+        <v>0.23</v>
+      </c>
+      <c r="O30">
+        <v>0.59000000000000008</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15">
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31">
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="G31">
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="H31">
+        <v>-0.05</v>
+      </c>
+      <c r="I31">
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="J31">
+        <v>1.9000000000000017E-2</v>
+      </c>
+      <c r="K31">
+        <v>4.0999999999999981E-2</v>
+      </c>
+      <c r="L31">
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="M31">
+        <v>0.14000000000000007</v>
+      </c>
+      <c r="N31">
+        <v>0.23999999999999994</v>
+      </c>
+      <c r="O31">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15">
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32">
+        <v>-0.89</v>
+      </c>
+      <c r="G32">
+        <v>-0.15</v>
+      </c>
+      <c r="H32">
+        <v>9.8000000000000032E-2</v>
+      </c>
+      <c r="I32">
+        <v>4.9999999999999906E-3</v>
+      </c>
+      <c r="J32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K32">
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="L32">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="M32">
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="N32">
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="O32">
+        <v>-0.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/vdkdPOLIER.xlsx
+++ b/vdkdPOLIER.xlsx
@@ -651,11 +651,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58807040"/>
-        <c:axId val="58808960"/>
+        <c:axId val="58348288"/>
+        <c:axId val="58350208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58807040"/>
+        <c:axId val="58348288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,17 +676,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58808960"/>
+        <c:crossAx val="58350208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58808960"/>
+        <c:axId val="58350208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,11 +710,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58807040"/>
+        <c:crossAx val="58348288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -730,9 +728,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38495052851224815"/>
+          <c:x val="0.38495052851224826"/>
           <c:y val="5.0295733169492415E-2"/>
-          <c:w val="0.15743140662569596"/>
+          <c:w val="0.15743140662569599"/>
           <c:h val="7.0574198062907725E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -769,7 +767,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.342037516875885E-2"/>
-          <c:y val="0.11163819510276175"/>
+          <c:y val="0.11163819510276173"/>
           <c:w val="0.7810961569100987"/>
           <c:h val="0.82578188782913264"/>
         </c:manualLayout>
@@ -974,11 +972,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58833920"/>
-        <c:axId val="60359808"/>
+        <c:axId val="58375168"/>
+        <c:axId val="59442304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58833920"/>
+        <c:axId val="58375168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,14 +999,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60359808"/>
+        <c:crossAx val="59442304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60359808"/>
+        <c:axId val="59442304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1044,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58833920"/>
+        <c:crossAx val="58375168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1871,11 +1869,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73705728"/>
-        <c:axId val="73744768"/>
+        <c:axId val="61666816"/>
+        <c:axId val="61668736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73705728"/>
+        <c:axId val="61666816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,20 +1898,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.43638908772767038"/>
-              <c:y val="0.82524969613697619"/>
+              <c:x val="0.43638908772767049"/>
+              <c:y val="0.82524969613697641"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73744768"/>
+        <c:crossAx val="61668736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73744768"/>
+        <c:axId val="61668736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,11 +1932,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73705728"/>
+        <c:crossAx val="61666816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1951,8 +1948,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.35840104986876642"/>
-          <c:y val="0.16244335229908338"/>
-          <c:w val="0.32604339457567805"/>
+          <c:y val="0.16244335229908341"/>
+          <c:w val="0.3260433945756781"/>
           <c:h val="0.21575437298525604"/>
         </c:manualLayout>
       </c:layout>
@@ -1973,7 +1970,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2412,11 +2409,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62629376"/>
-        <c:axId val="62640128"/>
+        <c:axId val="62100992"/>
+        <c:axId val="62115840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62629376"/>
+        <c:axId val="62100992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2448,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.37295856593777188"/>
+              <c:x val="0.37295856593777199"/>
               <c:y val="0.84225078316823299"/>
             </c:manualLayout>
           </c:layout>
@@ -2469,14 +2466,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62640128"/>
+        <c:crossAx val="62115840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62640128"/>
+        <c:axId val="62115840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2493,7 @@
                   <a:rPr lang="en-US" sz="1400" i="1">
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Offsetwerte zu Vorprozess [mm]</a:t>
+                  <a:t>Offsetwerte  [mm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2505,8 +2502,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4447884416924664E-2"/>
-              <c:y val="0.10686015860920611"/>
+              <c:x val="1.238390092879257E-2"/>
+              <c:y val="6.3849405921034066E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2524,7 +2521,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62629376"/>
+        <c:crossAx val="62100992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2535,10 +2532,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.30914442196273462"/>
-          <c:y val="5.2212570202918161E-2"/>
-          <c:w val="0.39157797225811181"/>
-          <c:h val="0.20740259080518164"/>
+          <c:x val="0.30914442196273467"/>
+          <c:y val="5.2212570202918175E-2"/>
+          <c:w val="0.39157797225811186"/>
+          <c:h val="0.20740259080518167"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2558,7 +2555,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10200,8 +10197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/vdkdPOLIER.xlsx
+++ b/vdkdPOLIER.xlsx
@@ -651,11 +651,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58348288"/>
-        <c:axId val="58350208"/>
+        <c:axId val="57955072"/>
+        <c:axId val="57956992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58348288"/>
+        <c:axId val="57955072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,16 +676,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58350208"/>
+        <c:crossAx val="57956992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58350208"/>
+        <c:axId val="57956992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,10 +711,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58348288"/>
+        <c:crossAx val="57955072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -728,9 +730,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38495052851224826"/>
+          <c:x val="0.38495052851224842"/>
           <c:y val="5.0295733169492415E-2"/>
-          <c:w val="0.15743140662569599"/>
+          <c:w val="0.15743140662569607"/>
           <c:h val="7.0574198062907725E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -767,7 +769,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.342037516875885E-2"/>
-          <c:y val="0.11163819510276173"/>
+          <c:y val="0.11163819510276167"/>
           <c:w val="0.7810961569100987"/>
           <c:h val="0.82578188782913264"/>
         </c:manualLayout>
@@ -972,11 +974,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58375168"/>
-        <c:axId val="59442304"/>
+        <c:axId val="57981952"/>
+        <c:axId val="61211776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58375168"/>
+        <c:axId val="57981952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,14 +1001,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59442304"/>
+        <c:crossAx val="61211776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59442304"/>
+        <c:axId val="61211776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1046,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58375168"/>
+        <c:crossAx val="57981952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1869,11 +1871,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61666816"/>
-        <c:axId val="61668736"/>
+        <c:axId val="62522880"/>
+        <c:axId val="62524800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61666816"/>
+        <c:axId val="62522880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,10 +1887,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Messpunkte</a:t>
                 </a:r>
               </a:p>
@@ -1898,20 +1900,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.43638908772767049"/>
-              <c:y val="0.82524969613697641"/>
+              <c:x val="0.43638908772767082"/>
+              <c:y val="0.82524969613697674"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61668736"/>
+        <c:crossAx val="62524800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61668736"/>
+        <c:axId val="62524800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,19 +1925,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1"/>
+                  <a:defRPr sz="1400" b="1" i="1"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="1"/>
                   <a:t>x = ( ± s) [mm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61666816"/>
+        <c:crossAx val="62522880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1949,7 +1952,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.35840104986876642"/>
           <c:y val="0.16244335229908341"/>
-          <c:w val="0.3260433945756781"/>
+          <c:w val="0.32604339457567821"/>
           <c:h val="0.21575437298525604"/>
         </c:manualLayout>
       </c:layout>
@@ -1970,7 +1973,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2409,11 +2412,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62100992"/>
-        <c:axId val="62115840"/>
+        <c:axId val="62690816"/>
+        <c:axId val="62705664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62100992"/>
+        <c:axId val="62690816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2448,7 +2451,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.37295856593777199"/>
+              <c:x val="0.37295856593777232"/>
               <c:y val="0.84225078316823299"/>
             </c:manualLayout>
           </c:layout>
@@ -2466,14 +2469,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62115840"/>
+        <c:crossAx val="62705664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62115840"/>
+        <c:axId val="62705664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,7 +2496,19 @@
                   <a:rPr lang="en-US" sz="1400" i="1">
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Offsetwerte  [mm]</a:t>
+                  <a:t>Verzug</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1" baseline="0">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>[mm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2502,8 +2517,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.238390092879257E-2"/>
-              <c:y val="6.3849405921034066E-2"/>
+              <c:x val="2.4767801857585141E-2"/>
+              <c:y val="9.2523241046482088E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2521,7 +2536,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62100992"/>
+        <c:crossAx val="62690816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2532,10 +2547,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.30914442196273467"/>
-          <c:y val="5.2212570202918175E-2"/>
-          <c:w val="0.39157797225811186"/>
-          <c:h val="0.20740259080518167"/>
+          <c:x val="0.30914442196273484"/>
+          <c:y val="5.2212570202918203E-2"/>
+          <c:w val="0.39157797225811197"/>
+          <c:h val="0.20740259080518175"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2555,7 +2570,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9597,7 +9612,7 @@
   <dimension ref="B2:M25"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10198,7 +10213,7 @@
   <dimension ref="C5:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/vdkdPOLIER.xlsx
+++ b/vdkdPOLIER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="23580" windowHeight="9855" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="23580" windowHeight="9855" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="F13polier" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="F18polier" sheetId="4" r:id="rId4"/>
     <sheet name="Vergleiche" sheetId="5" r:id="rId5"/>
     <sheet name="VorprozessVerzug" sheetId="6" r:id="rId6"/>
+    <sheet name="DiffVerzugStandardab." sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="70">
   <si>
     <t>MP1</t>
   </si>
@@ -232,6 +233,24 @@
   </si>
   <si>
     <t>aus</t>
+  </si>
+  <si>
+    <t>StandPol</t>
+  </si>
+  <si>
+    <t>Standfräs</t>
+  </si>
+  <si>
+    <t>Standpolier</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>neg</t>
   </si>
 </sst>
 </file>
@@ -651,11 +670,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57955072"/>
-        <c:axId val="57956992"/>
+        <c:axId val="56485760"/>
+        <c:axId val="57763328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57955072"/>
+        <c:axId val="56485760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,14 +698,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57956992"/>
+        <c:crossAx val="57763328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57956992"/>
+        <c:axId val="57763328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +734,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57955072"/>
+        <c:crossAx val="56485760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -730,9 +749,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38495052851224842"/>
+          <c:x val="0.38495052851224865"/>
           <c:y val="5.0295733169492415E-2"/>
-          <c:w val="0.15743140662569607"/>
+          <c:w val="0.15743140662569624"/>
           <c:h val="7.0574198062907725E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -769,7 +788,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.342037516875885E-2"/>
-          <c:y val="0.11163819510276167"/>
+          <c:y val="0.11163819510276159"/>
           <c:w val="0.7810961569100987"/>
           <c:h val="0.82578188782913264"/>
         </c:manualLayout>
@@ -974,11 +993,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57981952"/>
-        <c:axId val="61211776"/>
+        <c:axId val="58142080"/>
+        <c:axId val="58217984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57981952"/>
+        <c:axId val="58142080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,14 +1020,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61211776"/>
+        <c:crossAx val="58217984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61211776"/>
+        <c:axId val="58217984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1065,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57981952"/>
+        <c:crossAx val="58142080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1871,11 +1890,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62522880"/>
-        <c:axId val="62524800"/>
+        <c:axId val="74068736"/>
+        <c:axId val="74569216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62522880"/>
+        <c:axId val="74068736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,20 +1919,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.43638908772767082"/>
-              <c:y val="0.82524969613697674"/>
+              <c:x val="0.43638908772767127"/>
+              <c:y val="0.82524969613697718"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62524800"/>
+        <c:crossAx val="74569216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62524800"/>
+        <c:axId val="74569216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,11 +1953,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62522880"/>
+        <c:crossAx val="74068736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1952,7 +1970,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.35840104986876642"/>
           <c:y val="0.16244335229908341"/>
-          <c:w val="0.32604339457567821"/>
+          <c:w val="0.32604339457567832"/>
           <c:h val="0.21575437298525604"/>
         </c:manualLayout>
       </c:layout>
@@ -1973,7 +1991,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2412,11 +2430,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62690816"/>
-        <c:axId val="62705664"/>
+        <c:axId val="93173632"/>
+        <c:axId val="57663872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62690816"/>
+        <c:axId val="93173632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2469,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.37295856593777232"/>
+              <c:x val="0.37295856593777277"/>
               <c:y val="0.84225078316823299"/>
             </c:manualLayout>
           </c:layout>
@@ -2469,14 +2487,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62705664"/>
+        <c:crossAx val="57663872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62705664"/>
+        <c:axId val="57663872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,7 +2536,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="2.4767801857585141E-2"/>
-              <c:y val="9.2523241046482088E-2"/>
+              <c:y val="9.2523241046482158E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2536,7 +2554,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62690816"/>
+        <c:crossAx val="93173632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2547,10 +2565,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.30914442196273484"/>
-          <c:y val="5.2212570202918203E-2"/>
-          <c:w val="0.39157797225811197"/>
-          <c:h val="0.20740259080518175"/>
+          <c:x val="0.30914442196273501"/>
+          <c:y val="5.2212570202918251E-2"/>
+          <c:w val="0.39157797225811225"/>
+          <c:h val="0.20740259080518184"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2570,8 +2588,956 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VorprozessVerzug!$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardab.!$D$22:$M$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.100000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.0000000000000053E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.0000000000000011E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.9999999999999983E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2000000000000011E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.2999999999999974E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.4000000000000028E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardab.!$D$26:$M$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.3999999999999994E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VorprozessVerzug!$F$28:$O$28</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VorprozessVerzug!$F$29:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.0000000000000097E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VorprozessVerzug!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardab.!$D$23:$M$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.8999999999999961E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.57699999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.4000000000000012E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.1999999999999997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.9999999999999976E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.7999999999999997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.2000000000000011E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardab.!$D$27:$M$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.9000000000000015E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VorprozessVerzug!$F$28:$O$28</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VorprozessVerzug!$F$30:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.39999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000036E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59000000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VorprozessVerzug!$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardab.!$D$24:$M$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.100000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.6000000000000014E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.30000000000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6999999999999996E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.8000000000000009E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.199999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.1999999999999996E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.699999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.400000000000002E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardab.!$D$28:$M$28</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.200000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VorprozessVerzug!$F$28:$O$28</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VorprozessVerzug!$F$31:$O$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.9999999999999822E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9999999999999822E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0000000000000018E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9000000000000017E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0999999999999981E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0000000000000036E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VorprozessVerzug!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardab.!$D$25:$M$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.378</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.0000000000000045E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.6999999999999995E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.9999999999999992E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.21800000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardab.!$D$29:$M$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.5999999999999994E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.3999999999999994E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.0000000000000018E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.099999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.600000000000005E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>VorprozessVerzug!$F$28:$O$28</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VorprozessVerzug!$F$32:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8000000000000032E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9999999999999906E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9999999999999969E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="57815424"/>
+        <c:axId val="57817344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="57815424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1400" b="1" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41217425221228154"/>
+              <c:y val="0.79063787994242651"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57817344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57817344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Materialverzug ±  ∆s [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4767801857585141E-2"/>
+              <c:y val="0.13266661022210932"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57815424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30914442196273512"/>
+          <c:y val="5.2212570202918286E-2"/>
+          <c:w val="0.39157797225811242"/>
+          <c:h val="0.20740259080518189"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="1">
+              <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2711,11 +3677,46 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="C3:M29" totalsRowShown="0">
   <autoFilter ref="C3:M29"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Spalte1"/>
+    <tableColumn id="1" name="Nr."/>
     <tableColumn id="2" name="MP1"/>
     <tableColumn id="3" name="MP2"/>
     <tableColumn id="4" name="MP3"/>
@@ -3158,8 +4159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:M25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3174,7 +4175,7 @@
     </row>
     <row r="3" spans="3:26">
       <c r="C3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -5050,7 +6051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26:M26"/>
     </sheetView>
   </sheetViews>
@@ -6850,7 +7851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D26" sqref="D26:M26"/>
     </sheetView>
   </sheetViews>
@@ -8607,7 +9608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D26" sqref="D26:M26"/>
     </sheetView>
   </sheetViews>
@@ -9611,7 +10612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
@@ -10212,8 +11213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11084,4 +12085,1038 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B4:M29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="P86" sqref="P86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="2:13">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>0.25713963030556813</v>
+      </c>
+      <c r="E4">
+        <v>0.27694717337807429</v>
+      </c>
+      <c r="F4">
+        <v>0.16566532527961303</v>
+      </c>
+      <c r="G4">
+        <v>2.8654015976455085E-2</v>
+      </c>
+      <c r="H4">
+        <v>2.5603248149198878E-2</v>
+      </c>
+      <c r="I4">
+        <v>3.9586680375575306E-2</v>
+      </c>
+      <c r="J4">
+        <v>3.4958622157600774E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.15786319860462614</v>
+      </c>
+      <c r="L4">
+        <v>0.29989252460804933</v>
+      </c>
+      <c r="M4">
+        <v>0.27472282682541571</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>0.29581110615782386</v>
+      </c>
+      <c r="E5">
+        <v>0.81745609893388793</v>
+      </c>
+      <c r="F5">
+        <v>0.14034825107192242</v>
+      </c>
+      <c r="G5">
+        <v>3.6577243428696157E-2</v>
+      </c>
+      <c r="H5">
+        <v>5.5675280350486314E-2</v>
+      </c>
+      <c r="I5">
+        <v>4.9161388357766546E-2</v>
+      </c>
+      <c r="J5">
+        <v>3.8151360602074622E-2</v>
+      </c>
+      <c r="K5">
+        <v>0.12282957812822561</v>
+      </c>
+      <c r="L5">
+        <v>0.22070222854382435</v>
+      </c>
+      <c r="M5">
+        <v>0.23127563869251783</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>0.13204464954584041</v>
+      </c>
+      <c r="E6">
+        <v>0.16745462857615814</v>
+      </c>
+      <c r="F6">
+        <v>0.38590972492212949</v>
+      </c>
+      <c r="G6">
+        <v>5.8962521548593973E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.11439083511319736</v>
+      </c>
+      <c r="I6">
+        <v>0.12021362563983205</v>
+      </c>
+      <c r="J6">
+        <v>7.5365774725667092E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.18218772851389492</v>
+      </c>
+      <c r="L6">
+        <v>0.20904544960366864</v>
+      </c>
+      <c r="M6">
+        <v>0.26989032860346035</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>0.52313327274474331</v>
+      </c>
+      <c r="E7">
+        <v>9.8380303976592157E-2</v>
+      </c>
+      <c r="F7">
+        <v>6.335156708899678E-2</v>
+      </c>
+      <c r="G7">
+        <v>3.5165024489802646E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.12095562474682479</v>
+      </c>
+      <c r="I7">
+        <v>0.17218334781028594</v>
+      </c>
+      <c r="J7">
+        <v>0.26439404404470951</v>
+      </c>
+      <c r="K7">
+        <v>0.14741545302129519</v>
+      </c>
+      <c r="L7">
+        <v>0.23855044705360326</v>
+      </c>
+      <c r="M7">
+        <v>0.34604950969174708</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>0.246</v>
+      </c>
+      <c r="E10">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.19</v>
+      </c>
+      <c r="G10">
+        <v>0.02</v>
+      </c>
+      <c r="H10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J10">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K10">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="M10">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.24</v>
+      </c>
+      <c r="F11">
+        <v>0.126</v>
+      </c>
+      <c r="G11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H11">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J11">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.193</v>
+      </c>
+      <c r="M11">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>0.121</v>
+      </c>
+      <c r="E12">
+        <v>0.151</v>
+      </c>
+      <c r="F12">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G12">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H12">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K12">
+        <v>0.115</v>
+      </c>
+      <c r="L12">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.154</v>
+      </c>
+      <c r="F13">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G13">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H13">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I13">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J13">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K13">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="L13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M13">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <f>ROUND(D4,3)</f>
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:M14" si="0">ROUND(E4,3)</f>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.158</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:M17" si="1">ROUND(D5,3)</f>
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0.123</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0.221</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0.114</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0.182</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0.121</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <f>D14-D10</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:M18" si="2">E14-E10</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>-2.3999999999999994E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>1.9999999999999983E-3</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999974E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>9.4000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:M21" si="3">D15-D11</f>
+        <v>1.8999999999999961E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>1.4000000000000012E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>1.1999999999999997E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999976E-3</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>-7.9000000000000015E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <f>D16-D12</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:M20" si="4">E16-E12</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>2.6999999999999996E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>8.199999999999999E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>4.1999999999999996E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>6.699999999999999E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>-2.200000000000002E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>5.400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>0.378</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>-5.5999999999999994E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>-2.3999999999999994E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>9.0000000000000045E-3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0.21800000000000003</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>-5.099999999999999E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>-5.600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <f>IF(D18&gt;0,D18,0)</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:M22" si="5">IF(E18&gt;0,E18,0)</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>1.9999999999999983E-3</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>3.2999999999999974E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>9.4000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:M25" si="6">IF(D19&gt;0,D19,0)</f>
+        <v>1.8999999999999961E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="6"/>
+        <v>1.4000000000000012E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>1.1999999999999997E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="6"/>
+        <v>8.9999999999999976E-3</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="6"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>2.6999999999999996E-2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="6"/>
+        <v>8.199999999999999E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>4.1999999999999996E-2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>6.699999999999999E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>5.400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="6"/>
+        <v>0.378</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>9.0000000000000045E-3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="6"/>
+        <v>0.21800000000000003</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <f>IF(D18&lt;0,ABS(D18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:M26" si="7">IF(E18&lt;0,ABS(E18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="7"/>
+        <v>2.3999999999999994E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:M29" si="8">IF(D19&lt;0,ABS(D19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="8"/>
+        <v>7.9000000000000015E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="8"/>
+        <v>2.200000000000002E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="8"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
+        <v>2.3999999999999994E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="8"/>
+        <v>5.099999999999999E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="8"/>
+        <v>5.600000000000005E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>